--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VDE/VdE_data_analysis/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{D2D13F03-6A0C-48B4-8203-A0A0FB8419CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{362DB6BD-9682-416E-A2CA-0CB4D1F2E5A8}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="114_{0C8A2024-75A0-4F8A-B0DE-08B9A10E7CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55BAE2B2-75C1-4472-AC11-7DFAF4B69062}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7368" yWindow="1224" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +434,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,234 +466,220 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>54.761444852231023</v>
-      </c>
-      <c r="D2">
-        <v>-100</v>
-      </c>
-      <c r="E2">
-        <v>-45.777866083846618</v>
-      </c>
-      <c r="F2">
-        <v>-100</v>
-      </c>
-      <c r="G2">
-        <v>68.242929995363937</v>
-      </c>
-      <c r="H2">
-        <v>263.26530612244898</v>
+      <c r="B2" s="2">
+        <v>51.202947763889902</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-17.536869035891261</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>-7.7354790722834634</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>-38.993756003842464</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-5.8854631373715174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3.895565685868204</v>
-      </c>
-      <c r="D3">
-        <v>63.210631789895587</v>
-      </c>
-      <c r="E3">
-        <v>1.311999999999985</v>
-      </c>
-      <c r="F3">
-        <v>-23.677691971441071</v>
-      </c>
-      <c r="G3">
-        <v>-7.2272880783519122</v>
-      </c>
-      <c r="H3">
-        <v>138.6343216531896</v>
+      <c r="B3" s="2">
+        <v>-85.061822008134129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-23.545883005267541</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-34.37327705465966</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.5564462535304742</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-15.79737034233775</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-14.478838835083209</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-6.3871969688625407</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>137.655601659751</v>
-      </c>
-      <c r="D4">
-        <v>-100</v>
-      </c>
-      <c r="E4">
-        <v>-78.298226164079821</v>
-      </c>
-      <c r="F4">
-        <v>-49.220133691367202</v>
-      </c>
-      <c r="G4">
-        <v>-37.415372361608917</v>
-      </c>
-      <c r="H4">
-        <v>12.94565593631015</v>
+      <c r="B4" s="2">
+        <v>-18.9736624973531</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-2.099595464645899</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>-79.66950425638457</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-69.455155301702518</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-64.277202215303234</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-48.468098547062553</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>441.45726531641321</v>
-      </c>
-      <c r="D5">
-        <v>86.12597776862907</v>
-      </c>
-      <c r="E5">
-        <v>-63.17928968763372</v>
-      </c>
-      <c r="F5">
-        <v>-76.674903421153374</v>
-      </c>
-      <c r="G5">
-        <v>111.0941616974068</v>
-      </c>
-      <c r="H5">
-        <v>746.48729446935727</v>
+      <c r="B5" s="2">
+        <v>-45.681166860011558</v>
+      </c>
+      <c r="C5" s="2">
+        <v>375.32904444313289</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-12.062218366335619</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-70.541751062676525</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-65.253757652477091</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-33.766959680559452</v>
+      </c>
+      <c r="H5" s="2">
+        <v>98.189980915508784</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>168.70062653228001</v>
-      </c>
-      <c r="D6">
-        <v>-100</v>
-      </c>
-      <c r="E6">
-        <v>-13.55231672830107</v>
-      </c>
-      <c r="F6">
-        <v>-100</v>
-      </c>
-      <c r="G6">
-        <v>49.679849340866298</v>
-      </c>
-      <c r="H6">
-        <v>176.23828647925029</v>
+      <c r="B6" s="2">
+        <v>-53.980659607211443</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-7.7155015717554631</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>-24.18717466546752</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>-8.7241128507445538</v>
+      </c>
+      <c r="H6" s="2">
+        <v>22.414009468940741</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>22.950565628389889</v>
-      </c>
-      <c r="D7">
-        <v>-68.111888111888121</v>
-      </c>
-      <c r="E7">
-        <v>-49.250833579538259</v>
-      </c>
-      <c r="F7">
-        <v>-73.86114448067427</v>
-      </c>
-      <c r="G7">
-        <v>73.832858591222916</v>
-      </c>
-      <c r="H7">
-        <v>475.89453860640299</v>
+      <c r="B7" s="2">
+        <v>582.84337550164548</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26.465729604405158</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-80.616045134764306</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-44.829575249082318</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-66.657423758166615</v>
+      </c>
+      <c r="G7" s="2">
+        <v>118.54047383009291</v>
+      </c>
+      <c r="H7" s="2">
+        <v>64.613972491183503</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>32.901070832105297</v>
-      </c>
-      <c r="D8">
-        <v>-100</v>
-      </c>
-      <c r="E8">
-        <v>-60.885496183206122</v>
-      </c>
-      <c r="F8">
-        <v>-100</v>
-      </c>
-      <c r="G8">
-        <v>47.729977894915827</v>
-      </c>
-      <c r="H8">
-        <v>1.569599339116063</v>
+      <c r="B8" s="2">
+        <v>-6.9634515825675134</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-7.771122473825173</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>-79.338376425426219</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>-54.436980246235301</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-55.891189897486043</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>3.279460222815016</v>
-      </c>
-      <c r="D9">
-        <v>-51.3781182845931</v>
-      </c>
-      <c r="E9">
-        <v>-81.389000899531609</v>
-      </c>
-      <c r="F9">
-        <v>-43.830586627956627</v>
-      </c>
-      <c r="G9">
-        <v>37.692640069134391</v>
-      </c>
-      <c r="H9">
-        <v>86.401326699834158</v>
+      <c r="B9" s="2">
+        <v>-36.257646105092498</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-33.563956689300781</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-61.26238826523965</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-79.449038508587364</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-38.905348800490387</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.9303933123388859</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-54.525084028382921</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-67.463696910143028</v>
-      </c>
-      <c r="D10">
-        <v>30.620353755447329</v>
-      </c>
-      <c r="E10">
-        <v>36.218678815489753</v>
-      </c>
-      <c r="F10">
-        <v>38.558610709117211</v>
-      </c>
-      <c r="G10">
-        <v>-49.097498748181891</v>
-      </c>
-      <c r="H10">
-        <v>89.405439595192902</v>
+      <c r="B10" s="2">
+        <v>-20.52413322981954</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-72.322137224107934</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30.984806696407059</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41.275734053324328</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-17.61490751640061</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-34.573599638916079</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-21.311260018394432</v>
       </c>
     </row>
   </sheetData>
@@ -702,9 +689,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="114_{0C8A2024-75A0-4F8A-B0DE-08B9A10E7CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55BAE2B2-75C1-4472-AC11-7DFAF4B69062}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{96BE8B88-AB87-469E-B32E-4B32F9E93559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A252A794-70E9-47B2-A42B-F06788195F39}"/>
   <bookViews>
-    <workbookView xWindow="7368" yWindow="1224" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>A1</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>ECHL16</t>
+  </si>
+  <si>
+    <t>Bilan</t>
   </si>
 </sst>
 </file>
@@ -123,12 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,220 +468,239 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>51.202947763889902</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-17.536869035891261</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>-7.7354790722834634</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>-38.993756003842464</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-5.8854631373715174</v>
+      <c r="B2">
+        <v>29.158609339642052</v>
+      </c>
+      <c r="C2">
+        <v>-12.4171030576869</v>
+      </c>
+      <c r="E2">
+        <v>-5.2934780093931462</v>
+      </c>
+      <c r="G2">
+        <v>-29.879557980548942</v>
+      </c>
+      <c r="H2">
+        <v>-4.0021572548931417</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>-85.061822008134129</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-23.545883005267541</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-34.37327705465966</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.5564462535304742</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-15.79737034233775</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-14.478838835083209</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-6.3871969688625407</v>
+      <c r="B3">
+        <v>-79.150035422141897</v>
+      </c>
+      <c r="C3">
+        <v>-17.034206805258879</v>
+      </c>
+      <c r="D3">
+        <v>-25.88088779134835</v>
+      </c>
+      <c r="E3">
+        <v>1.979778699036665</v>
+      </c>
+      <c r="F3">
+        <v>-11.1169768987476</v>
+      </c>
+      <c r="G3">
+        <v>-10.142042555451949</v>
+      </c>
+      <c r="H3">
+        <v>-4.3507618897566829</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>-18.9736624973531</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-2.099595464645899</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>-79.66950425638457</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-69.455155301702518</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-64.277202215303234</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-48.468098547062553</v>
+      <c r="B4">
+        <v>-13.5031205017746</v>
+      </c>
+      <c r="C4">
+        <v>-1.409595578039387</v>
+      </c>
+      <c r="E4">
+        <v>-73.706064838011571</v>
+      </c>
+      <c r="F4">
+        <v>-60.253054361371653</v>
+      </c>
+      <c r="G4">
+        <v>-54.536262779311151</v>
+      </c>
+      <c r="H4">
+        <v>-38.538331135807127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>-45.681166860011558</v>
-      </c>
-      <c r="C5" s="2">
-        <v>375.32904444313289</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-12.062218366335619</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-70.541751062676525</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-65.253757652477091</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-33.766959680559452</v>
-      </c>
-      <c r="H5" s="2">
-        <v>98.189980915508784</v>
+      <c r="B5">
+        <v>-35.924328761658479</v>
+      </c>
+      <c r="C5">
+        <v>111.1544209541955</v>
+      </c>
+      <c r="D5">
+        <v>-8.3783505574701298</v>
+      </c>
+      <c r="E5">
+        <v>-63.659612406738312</v>
+      </c>
+      <c r="F5">
+        <v>-55.595145634641653</v>
+      </c>
+      <c r="G5">
+        <v>-25.3664681438818</v>
+      </c>
+      <c r="H5">
+        <v>49.318157473351157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>-53.980659607211443</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-7.7155015717554631</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>-24.18717466546752</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>-8.7241128507445538</v>
-      </c>
-      <c r="H6" s="2">
-        <v>22.414009468940741</v>
+      <c r="B6">
+        <v>-43.883265048208983</v>
+      </c>
+      <c r="C6">
+        <v>-5.2794463019732154</v>
+      </c>
+      <c r="E6">
+        <v>-17.538832457215129</v>
+      </c>
+      <c r="G6">
+        <v>-5.9902746747272948</v>
+      </c>
+      <c r="H6">
+        <v>13.90386820092565</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>582.84337550164548</v>
-      </c>
-      <c r="C7" s="2">
-        <v>26.465729604405158</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-80.616045134764306</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-44.829575249082318</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-66.657423758166615</v>
-      </c>
-      <c r="G7" s="2">
-        <v>118.54047383009291</v>
-      </c>
-      <c r="H7" s="2">
-        <v>64.613972491183503</v>
+      <c r="B7">
+        <v>132.03777514227019</v>
+      </c>
+      <c r="C7">
+        <v>16.21348105142614</v>
+      </c>
+      <c r="D7">
+        <v>-73.493109543298687</v>
+      </c>
+      <c r="E7">
+        <v>-36.501155954043497</v>
+      </c>
+      <c r="F7">
+        <v>-57.132671483907558</v>
+      </c>
+      <c r="G7">
+        <v>56.644688503035688</v>
+      </c>
+      <c r="H7">
+        <v>35.442400657174993</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
-        <v>-6.9634515825675134</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-7.771122473825173</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>-79.338376425426219</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>-54.436980246235301</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-55.891189897486043</v>
+      <c r="B8">
+        <v>-4.7526164365327039</v>
+      </c>
+      <c r="C8">
+        <v>-5.3185178272664713</v>
+      </c>
+      <c r="E8">
+        <v>-71.909537453950051</v>
+      </c>
+      <c r="G8">
+        <v>-44.336464261452157</v>
+      </c>
+      <c r="H8">
+        <v>-45.792030098392942</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
-        <v>-36.257646105092498</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-33.563956689300781</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-61.26238826523965</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-79.449038508587364</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-38.905348800490387</v>
-      </c>
-      <c r="G9" s="2">
-        <v>7.9303933123388859</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-54.525084028382921</v>
+      <c r="B9">
+        <v>-27.49474672508607</v>
+      </c>
+      <c r="C9">
+        <v>-25.194756889675642</v>
+      </c>
+      <c r="D9">
+        <v>-51.321941121956712</v>
+      </c>
+      <c r="E9">
+        <v>-72.730263347742536</v>
+      </c>
+      <c r="F9">
+        <v>-29.80172027404863</v>
+      </c>
+      <c r="G9">
+        <v>5.150770099069077</v>
+      </c>
+      <c r="H9">
+        <v>-44.424159440133877</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
-        <v>-20.52413322981954</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-72.322137224107934</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30.984806696407059</v>
-      </c>
-      <c r="E10" s="2">
-        <v>41.275734053324328</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-17.61490751640061</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-34.573599638916079</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-21.311260018394432</v>
+      <c r="B10">
+        <v>-14.68758892637913</v>
+      </c>
+      <c r="C10">
+        <v>-63.530232006170998</v>
+      </c>
+      <c r="D10">
+        <v>18.722796980120979</v>
+      </c>
+      <c r="E10">
+        <v>26.115852243309341</v>
+      </c>
+      <c r="F10">
+        <v>-12.475805547294369</v>
+      </c>
+      <c r="G10">
+        <v>-26.051364590622821</v>
+      </c>
+      <c r="H10">
+        <v>-15.29395125170902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>368.31023606023609</v>
+      </c>
+      <c r="C11">
+        <v>347.45875420875433</v>
+      </c>
+      <c r="D11">
+        <v>-1553.9260361552031</v>
+      </c>
+      <c r="E11">
+        <v>-1150.200705467372</v>
+      </c>
+      <c r="F11">
+        <v>-1300.854067460318</v>
+      </c>
+      <c r="G11">
+        <v>-297.43865393865411</v>
+      </c>
+      <c r="H11">
+        <v>-69.767160790598254</v>
       </c>
     </row>
   </sheetData>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{96BE8B88-AB87-469E-B32E-4B32F9E93559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A252A794-70E9-47B2-A42B-F06788195F39}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{8781F107-44BC-4EC6-938C-0600E3401B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A28F2FFB-BD3A-4FBB-BB7E-1060C96D2368}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,29 +20,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>A1 -12h</t>
+  </si>
+  <si>
+    <t>A1 -6h</t>
+  </si>
+  <si>
+    <t>A1 -3h</t>
+  </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>A1 3h</t>
+  </si>
+  <si>
+    <t>A1 6h</t>
+  </si>
+  <si>
+    <t>A1 12h</t>
+  </si>
+  <si>
+    <t>A2 -12h</t>
+  </si>
+  <si>
+    <t>A2 -6h</t>
+  </si>
+  <si>
+    <t>A2 -3h</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
+    <t>A2 3h</t>
+  </si>
+  <si>
+    <t>A2 6h</t>
+  </si>
+  <si>
+    <t>A2 12h</t>
+  </si>
+  <si>
+    <t>A3 -12h</t>
+  </si>
+  <si>
+    <t>A3 -6h</t>
+  </si>
+  <si>
+    <t>A3 -3h</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>A3 3h</t>
+  </si>
+  <si>
+    <t>A3 6h</t>
+  </si>
+  <si>
+    <t>A3 12h</t>
+  </si>
+  <si>
+    <t>A4 -12h</t>
+  </si>
+  <si>
+    <t>A4 -6h</t>
+  </si>
+  <si>
+    <t>A4 -3h</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A4 3h</t>
+  </si>
+  <si>
+    <t>A4 6h</t>
+  </si>
+  <si>
+    <t>A4 12h</t>
+  </si>
+  <si>
+    <t>A5 -12h</t>
+  </si>
+  <si>
+    <t>A5 -6h</t>
+  </si>
+  <si>
+    <t>A5 -3h</t>
+  </si>
+  <si>
     <t>A5</t>
   </si>
   <si>
+    <t>A5 3h</t>
+  </si>
+  <si>
+    <t>A5 6h</t>
+  </si>
+  <si>
+    <t>A5 12h</t>
+  </si>
+  <si>
+    <t>A6 -12h</t>
+  </si>
+  <si>
+    <t>A6 -6h</t>
+  </si>
+  <si>
+    <t>A6 -3h</t>
+  </si>
+  <si>
     <t>A6</t>
   </si>
   <si>
+    <t>A6 3h</t>
+  </si>
+  <si>
+    <t>A6 6h</t>
+  </si>
+  <si>
+    <t>A6 12h</t>
+  </si>
+  <si>
+    <t>A7 -12h</t>
+  </si>
+  <si>
+    <t>A7 -6h</t>
+  </si>
+  <si>
+    <t>A7 -3h</t>
+  </si>
+  <si>
     <t>A7</t>
   </si>
   <si>
+    <t>A7 3h</t>
+  </si>
+  <si>
+    <t>A7 6h</t>
+  </si>
+  <si>
+    <t>A7 12h</t>
+  </si>
+  <si>
     <t>ECHL01</t>
   </si>
   <si>
@@ -70,7 +196,7 @@
     <t>ECHL16</t>
   </si>
   <si>
-    <t>Bilan</t>
+    <t>Bilan en Watt</t>
   </si>
 </sst>
 </file>
@@ -433,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,248 +589,1508 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B2">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="C2">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
         <v>29.158609339642052</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>48.27428401145152</v>
+      </c>
+      <c r="G2">
+        <v>49.504102841036357</v>
+      </c>
+      <c r="H2">
+        <v>43.703495076900843</v>
+      </c>
+      <c r="I2">
+        <v>-1.4249905348773431</v>
+      </c>
+      <c r="J2">
+        <v>2.7063850870130599</v>
+      </c>
+      <c r="K2">
+        <v>7.9100243177519722</v>
+      </c>
+      <c r="L2">
         <v>-12.4171030576869</v>
       </c>
-      <c r="E2">
+      <c r="M2">
+        <v>24.984872932634129</v>
+      </c>
+      <c r="N2">
+        <v>22.647994004408009</v>
+      </c>
+      <c r="O2">
+        <v>15.92824474554207</v>
+      </c>
+      <c r="W2">
+        <v>8.6285211503503803</v>
+      </c>
+      <c r="X2">
+        <v>9.0896639883126351</v>
+      </c>
+      <c r="Y2">
+        <v>10.4670985339243</v>
+      </c>
+      <c r="Z2">
         <v>-5.2934780093931462</v>
       </c>
-      <c r="G2">
+      <c r="AA2">
+        <v>-5.3574645584179779</v>
+      </c>
+      <c r="AB2">
+        <v>-19.318025574040981</v>
+      </c>
+      <c r="AC2">
+        <v>-4.0896880767542196</v>
+      </c>
+      <c r="AK2">
+        <v>-20.497720014030691</v>
+      </c>
+      <c r="AL2">
+        <v>-25.34090545171173</v>
+      </c>
+      <c r="AM2">
+        <v>-40.135617504292078</v>
+      </c>
+      <c r="AN2">
         <v>-29.879557980548942</v>
       </c>
-      <c r="H2">
+      <c r="AO2">
+        <v>-26.986054743523241</v>
+      </c>
+      <c r="AP2">
+        <v>-40.396085693239478</v>
+      </c>
+      <c r="AQ2">
+        <v>-28.19401601322415</v>
+      </c>
+      <c r="AR2">
+        <v>24.993366588834618</v>
+      </c>
+      <c r="AS2">
+        <v>16.418433502715938</v>
+      </c>
+      <c r="AT2">
+        <v>9.1705937794533519</v>
+      </c>
+      <c r="AU2">
         <v>-4.0021572548931417</v>
       </c>
+      <c r="AV2">
+        <v>6.5343038459616327</v>
+      </c>
+      <c r="AW2">
+        <v>3.4832433323714831</v>
+      </c>
+      <c r="AX2">
+        <v>17.57719714964372</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B3">
+        <v>60.461126125620979</v>
+      </c>
+      <c r="C3">
+        <v>61.242903041239387</v>
+      </c>
+      <c r="D3">
+        <v>49.865711727842438</v>
+      </c>
+      <c r="E3">
         <v>-79.150035422141897</v>
       </c>
-      <c r="C3">
+      <c r="F3">
+        <v>-35.035945301374333</v>
+      </c>
+      <c r="G3">
+        <v>-4.0492995885329499</v>
+      </c>
+      <c r="H3">
+        <v>-0.36006354062481288</v>
+      </c>
+      <c r="I3">
+        <v>-1.3731331972357239</v>
+      </c>
+      <c r="J3">
+        <v>6.0468140442132654</v>
+      </c>
+      <c r="K3">
+        <v>8.3503671738965934</v>
+      </c>
+      <c r="L3">
         <v>-17.034206805258879</v>
       </c>
-      <c r="D3">
+      <c r="M3">
+        <v>19.660770304280931</v>
+      </c>
+      <c r="N3">
+        <v>9.0633011842265674</v>
+      </c>
+      <c r="O3">
+        <v>-4.6860757155341243E-2</v>
+      </c>
+      <c r="P3">
+        <v>32.227607251839892</v>
+      </c>
+      <c r="Q3">
+        <v>31.993510495139141</v>
+      </c>
+      <c r="R3">
+        <v>37.147429485897177</v>
+      </c>
+      <c r="S3">
         <v>-25.88088779134835</v>
       </c>
-      <c r="E3">
+      <c r="T3">
+        <v>-41.285713517013527</v>
+      </c>
+      <c r="U3">
+        <v>-24.62701136013845</v>
+      </c>
+      <c r="V3">
+        <v>-24.10973140210524</v>
+      </c>
+      <c r="W3">
+        <v>8.138912506870275</v>
+      </c>
+      <c r="X3">
+        <v>5.5336938380073244</v>
+      </c>
+      <c r="Y3">
+        <v>-4.0362935619883817</v>
+      </c>
+      <c r="Z3">
         <v>1.979778699036665</v>
       </c>
-      <c r="F3">
+      <c r="AA3">
+        <v>-15.37675649421341</v>
+      </c>
+      <c r="AB3">
+        <v>-7.9163688857631627</v>
+      </c>
+      <c r="AC3">
+        <v>-15.002317524412581</v>
+      </c>
+      <c r="AD3">
+        <v>-8.8348051884423704</v>
+      </c>
+      <c r="AE3">
+        <v>-9.1598504956394571</v>
+      </c>
+      <c r="AF3">
+        <v>-9.7431307367207669</v>
+      </c>
+      <c r="AG3">
         <v>-11.1169768987476</v>
       </c>
-      <c r="G3">
+      <c r="AH3">
+        <v>-11.606472251842909</v>
+      </c>
+      <c r="AI3">
+        <v>-18.11003440423497</v>
+      </c>
+      <c r="AJ3">
+        <v>-13.28026080249159</v>
+      </c>
+      <c r="AK3">
+        <v>3.1935640415841502</v>
+      </c>
+      <c r="AL3">
+        <v>-16.404398133081951</v>
+      </c>
+      <c r="AM3">
+        <v>-15.77254892549886</v>
+      </c>
+      <c r="AN3">
         <v>-10.142042555451949</v>
       </c>
-      <c r="H3">
+      <c r="AO3">
+        <v>-14.678791956384551</v>
+      </c>
+      <c r="AP3">
+        <v>-10.204560048107799</v>
+      </c>
+      <c r="AQ3">
+        <v>-4.6735584476037157</v>
+      </c>
+      <c r="AR3">
+        <v>42.05276713588583</v>
+      </c>
+      <c r="AS3">
+        <v>35.00035796959645</v>
+      </c>
+      <c r="AT3">
+        <v>34.60095693779904</v>
+      </c>
+      <c r="AU3">
         <v>-4.3507618897566829</v>
       </c>
+      <c r="AV3">
+        <v>28.267019436247079</v>
+      </c>
+      <c r="AW3">
+        <v>36.798551848978533</v>
+      </c>
+      <c r="AX3">
+        <v>40.188779579898963</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B4">
+        <v>92.923901180672672</v>
+      </c>
+      <c r="C4">
+        <v>79.037376586741885</v>
+      </c>
+      <c r="D4">
+        <v>52.371414264253538</v>
+      </c>
+      <c r="E4">
         <v>-13.5031205017746</v>
       </c>
-      <c r="C4">
+      <c r="F4">
+        <v>25.25845787709741</v>
+      </c>
+      <c r="G4">
+        <v>22.012493728942619</v>
+      </c>
+      <c r="H4">
+        <v>26.23302061448214</v>
+      </c>
+      <c r="I4">
+        <v>4.1534215851052743</v>
+      </c>
+      <c r="J4">
+        <v>3.1219501789228499</v>
+      </c>
+      <c r="K4">
+        <v>7.5598818610495293</v>
+      </c>
+      <c r="L4">
         <v>-1.409595578039387</v>
       </c>
-      <c r="E4">
+      <c r="M4">
+        <v>26.898247771288059</v>
+      </c>
+      <c r="N4">
+        <v>26.233002111477411</v>
+      </c>
+      <c r="O4">
+        <v>15.454521731636291</v>
+      </c>
+      <c r="W4">
+        <v>12.43472656404141</v>
+      </c>
+      <c r="X4">
+        <v>8.7861688077800544</v>
+      </c>
+      <c r="Y4">
+        <v>10.575149922316269</v>
+      </c>
+      <c r="Z4">
         <v>-73.706064838011571</v>
       </c>
-      <c r="F4">
+      <c r="AA4">
+        <v>6.6370747258083309</v>
+      </c>
+      <c r="AB4">
+        <v>1.818614494182432</v>
+      </c>
+      <c r="AC4">
+        <v>-3.129565995784116</v>
+      </c>
+      <c r="AD4">
+        <v>-39.438320805064791</v>
+      </c>
+      <c r="AE4">
+        <v>-50.383958387836437</v>
+      </c>
+      <c r="AF4">
+        <v>-51.392568775204097</v>
+      </c>
+      <c r="AG4">
         <v>-60.253054361371653</v>
       </c>
-      <c r="G4">
+      <c r="AH4">
+        <v>-46.57631532224655</v>
+      </c>
+      <c r="AI4">
+        <v>-30.611135102282361</v>
+      </c>
+      <c r="AJ4">
+        <v>-32.109757687737257</v>
+      </c>
+      <c r="AK4">
+        <v>11.01520201922891</v>
+      </c>
+      <c r="AL4">
+        <v>20.353773062117181</v>
+      </c>
+      <c r="AM4">
+        <v>28.216428179553379</v>
+      </c>
+      <c r="AN4">
         <v>-54.536262779311151</v>
       </c>
-      <c r="H4">
+      <c r="AO4">
+        <v>67.629138765420649</v>
+      </c>
+      <c r="AP4">
+        <v>30.972187358005559</v>
+      </c>
+      <c r="AQ4">
+        <v>20.570630817645512</v>
+      </c>
+      <c r="AR4">
+        <v>48.662279168705631</v>
+      </c>
+      <c r="AS4">
+        <v>41.319124476519789</v>
+      </c>
+      <c r="AT4">
+        <v>40.77477119699622</v>
+      </c>
+      <c r="AU4">
         <v>-38.538331135807127</v>
       </c>
+      <c r="AV4">
+        <v>0.1130019733180348</v>
+      </c>
+      <c r="AW4">
+        <v>22.619954303122618</v>
+      </c>
+      <c r="AX4">
+        <v>36.445713403812007</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B5">
+        <v>129.49075721536531</v>
+      </c>
+      <c r="C5">
+        <v>129.78723404255319</v>
+      </c>
+      <c r="D5">
+        <v>129.1088222122705</v>
+      </c>
+      <c r="E5">
         <v>-35.924328761658479</v>
       </c>
-      <c r="C5">
+      <c r="F5">
+        <v>66.520393883760633</v>
+      </c>
+      <c r="G5">
+        <v>59.254600372097237</v>
+      </c>
+      <c r="H5">
+        <v>47.623244405542039</v>
+      </c>
+      <c r="I5">
+        <v>13.15678856662463</v>
+      </c>
+      <c r="J5">
+        <v>-19.64362489848563</v>
+      </c>
+      <c r="K5">
+        <v>-37.645302335501761</v>
+      </c>
+      <c r="L5">
         <v>111.1544209541955</v>
       </c>
-      <c r="D5">
+      <c r="M5">
+        <v>59.845943008364408</v>
+      </c>
+      <c r="N5">
+        <v>13.18098312781061</v>
+      </c>
+      <c r="O5">
+        <v>3.342953502092016</v>
+      </c>
+      <c r="P5">
+        <v>80.457131450244518</v>
+      </c>
+      <c r="Q5">
+        <v>74.358029015429423</v>
+      </c>
+      <c r="R5">
+        <v>71.734230445752729</v>
+      </c>
+      <c r="S5">
         <v>-8.3783505574701298</v>
       </c>
-      <c r="E5">
+      <c r="T5">
+        <v>48.726503484494792</v>
+      </c>
+      <c r="U5">
+        <v>16.392116775153688</v>
+      </c>
+      <c r="V5">
+        <v>2.9224312283527452</v>
+      </c>
+      <c r="W5">
+        <v>26.228132274536971</v>
+      </c>
+      <c r="X5">
+        <v>-24.009757029140879</v>
+      </c>
+      <c r="Y5">
+        <v>-2.9863748823918881</v>
+      </c>
+      <c r="Z5">
         <v>-63.659612406738312</v>
       </c>
-      <c r="F5">
+      <c r="AA5">
+        <v>-8.7891771205174933</v>
+      </c>
+      <c r="AB5">
+        <v>19.696523000209609</v>
+      </c>
+      <c r="AC5">
+        <v>18.665085574218551</v>
+      </c>
+      <c r="AD5">
+        <v>-5.1725484203093677</v>
+      </c>
+      <c r="AE5">
+        <v>-11.053730975184131</v>
+      </c>
+      <c r="AF5">
+        <v>-11.46833224398636</v>
+      </c>
+      <c r="AG5">
         <v>-55.595145634641653</v>
       </c>
-      <c r="G5">
+      <c r="AH5">
+        <v>-43.306069273919462</v>
+      </c>
+      <c r="AI5">
+        <v>-43.776585600451071</v>
+      </c>
+      <c r="AJ5">
+        <v>-36.028332573629619</v>
+      </c>
+      <c r="AK5">
+        <v>13.483649837887899</v>
+      </c>
+      <c r="AL5">
+        <v>4.379710735383985</v>
+      </c>
+      <c r="AM5">
+        <v>3.981377428158595</v>
+      </c>
+      <c r="AN5">
         <v>-25.3664681438818</v>
       </c>
-      <c r="H5">
+      <c r="AO5">
+        <v>-12.50478391990571</v>
+      </c>
+      <c r="AP5">
+        <v>23.195281387004179</v>
+      </c>
+      <c r="AQ5">
+        <v>11.51527082513077</v>
+      </c>
+      <c r="AR5">
+        <v>87.533702989711927</v>
+      </c>
+      <c r="AS5">
+        <v>109.36516778277</v>
+      </c>
+      <c r="AT5">
+        <v>72.712561090073478</v>
+      </c>
+      <c r="AU5">
         <v>49.318157473351157</v>
       </c>
+      <c r="AV5">
+        <v>54.296928483410163</v>
+      </c>
+      <c r="AW5">
+        <v>71.882182780387708</v>
+      </c>
+      <c r="AX5">
+        <v>71.481645611883778</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B6">
+        <v>96.902469652574283</v>
+      </c>
+      <c r="C6">
+        <v>115.3138157250563</v>
+      </c>
+      <c r="D6">
+        <v>105.8543226684819</v>
+      </c>
+      <c r="E6">
         <v>-43.883265048208983</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>-9.096363854554177</v>
+      </c>
+      <c r="G6">
+        <v>-9.05850445563736</v>
+      </c>
+      <c r="H6">
+        <v>-0.49137284321082142</v>
+      </c>
+      <c r="I6">
+        <v>-12.843739465077681</v>
+      </c>
+      <c r="J6">
+        <v>-8.8628874094432479</v>
+      </c>
+      <c r="K6">
+        <v>-12.53193599050425</v>
+      </c>
+      <c r="L6">
         <v>-5.2794463019732154</v>
       </c>
-      <c r="E6">
+      <c r="M6">
+        <v>-28.692183218155279</v>
+      </c>
+      <c r="N6">
+        <v>-28.999533230277201</v>
+      </c>
+      <c r="O6">
+        <v>0.1651371393331717</v>
+      </c>
+      <c r="W6">
+        <v>-1.205374010386002</v>
+      </c>
+      <c r="X6">
+        <v>-4.7071039197023534</v>
+      </c>
+      <c r="Y6">
+        <v>-11.437044395424619</v>
+      </c>
+      <c r="Z6">
         <v>-17.538832457215129</v>
       </c>
-      <c r="G6">
+      <c r="AA6">
+        <v>31.580958202796669</v>
+      </c>
+      <c r="AB6">
+        <v>10.150144261744019</v>
+      </c>
+      <c r="AC6">
+        <v>10.49941884507583</v>
+      </c>
+      <c r="AK6">
+        <v>-8.5274516681453427</v>
+      </c>
+      <c r="AL6">
+        <v>-9.0217363735511142</v>
+      </c>
+      <c r="AM6">
+        <v>-2.4367722693653748</v>
+      </c>
+      <c r="AN6">
         <v>-5.9902746747272948</v>
       </c>
-      <c r="H6">
+      <c r="AO6">
+        <v>-25.558500567966679</v>
+      </c>
+      <c r="AP6">
+        <v>-25.72663683364469</v>
+      </c>
+      <c r="AQ6">
+        <v>-21.78511161281871</v>
+      </c>
+      <c r="AR6">
+        <v>82.190865206089867</v>
+      </c>
+      <c r="AS6">
+        <v>89.278859336440902</v>
+      </c>
+      <c r="AT6">
+        <v>90.095877676180422</v>
+      </c>
+      <c r="AU6">
         <v>13.90386820092565</v>
       </c>
+      <c r="AV6">
+        <v>76.565443865676599</v>
+      </c>
+      <c r="AW6">
+        <v>64.124687560084581</v>
+      </c>
+      <c r="AX6">
+        <v>57.85776702292128</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B7">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="C7">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
         <v>132.03777514227019</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>64.797181785214718</v>
+      </c>
+      <c r="G7">
+        <v>96.097670902953496</v>
+      </c>
+      <c r="H7">
+        <v>76.751154950680515</v>
+      </c>
+      <c r="I7">
+        <v>-15.497085297084039</v>
+      </c>
+      <c r="J7">
+        <v>-29.172792287282341</v>
+      </c>
+      <c r="K7">
+        <v>-29.394104209724802</v>
+      </c>
+      <c r="L7">
         <v>16.21348105142614</v>
       </c>
-      <c r="D7">
+      <c r="M7">
+        <v>15.52863697962483</v>
+      </c>
+      <c r="N7">
+        <v>-6.1413487384350187</v>
+      </c>
+      <c r="O7">
+        <v>32.46957275452344</v>
+      </c>
+      <c r="P7">
+        <v>-2.715991571060647</v>
+      </c>
+      <c r="Q7">
+        <v>10.576789437109101</v>
+      </c>
+      <c r="R7">
+        <v>-4.4014578076815374</v>
+      </c>
+      <c r="S7">
         <v>-73.493109543298687</v>
       </c>
-      <c r="E7">
+      <c r="T7">
+        <v>-56.847186736891018</v>
+      </c>
+      <c r="U7">
+        <v>-55.805626598465473</v>
+      </c>
+      <c r="V7">
+        <v>-61.417482259032042</v>
+      </c>
+      <c r="W7">
+        <v>-3.7516832654105401</v>
+      </c>
+      <c r="X7">
+        <v>13.78078970621528</v>
+      </c>
+      <c r="Y7">
+        <v>16.125005572644991</v>
+      </c>
+      <c r="Z7">
         <v>-36.501155954043497</v>
       </c>
-      <c r="F7">
+      <c r="AA7">
+        <v>-49.029642580796157</v>
+      </c>
+      <c r="AB7">
+        <v>-41.698748161509322</v>
+      </c>
+      <c r="AC7">
+        <v>-31.626495139666819</v>
+      </c>
+      <c r="AD7">
+        <v>-1.6964237295164339</v>
+      </c>
+      <c r="AE7">
+        <v>-25.99537037037036</v>
+      </c>
+      <c r="AF7">
+        <v>-25.269583092902479</v>
+      </c>
+      <c r="AG7">
         <v>-57.132671483907558</v>
       </c>
-      <c r="G7">
+      <c r="AH7">
+        <v>-38.089940063884008</v>
+      </c>
+      <c r="AI7">
+        <v>-33.058354182162411</v>
+      </c>
+      <c r="AJ7">
+        <v>0.10136049710714019</v>
+      </c>
+      <c r="AK7">
+        <v>-8.8975477729298404</v>
+      </c>
+      <c r="AL7">
+        <v>-7.5819767417283526</v>
+      </c>
+      <c r="AM7">
+        <v>-4.950366433203059</v>
+      </c>
+      <c r="AN7">
         <v>56.644688503035688</v>
       </c>
-      <c r="H7">
+      <c r="AO7">
+        <v>2.1975086846268419</v>
+      </c>
+      <c r="AP7">
+        <v>-9.5788720903294635</v>
+      </c>
+      <c r="AQ7">
+        <v>-11.20301645803964</v>
+      </c>
+      <c r="AR7">
+        <v>42.393571184547987</v>
+      </c>
+      <c r="AS7">
+        <v>51.330856146204582</v>
+      </c>
+      <c r="AT7">
+        <v>-7.6978262429155579</v>
+      </c>
+      <c r="AU7">
         <v>35.442400657174993</v>
       </c>
+      <c r="AV7">
+        <v>43.918981410118093</v>
+      </c>
+      <c r="AW7">
+        <v>40.62241093620549</v>
+      </c>
+      <c r="AX7">
+        <v>56.550493636255517</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B8">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="C8">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="D8">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="E8">
         <v>-4.7526164365327039</v>
       </c>
-      <c r="C8">
+      <c r="F8">
+        <v>56.157390313207337</v>
+      </c>
+      <c r="G8">
+        <v>55.877038009186819</v>
+      </c>
+      <c r="H8">
+        <v>54.006131966093818</v>
+      </c>
+      <c r="I8">
+        <v>6.4920009274287187</v>
+      </c>
+      <c r="J8">
+        <v>7.0992306307927757</v>
+      </c>
+      <c r="K8">
+        <v>10.74631489694756</v>
+      </c>
+      <c r="L8">
         <v>-5.3185178272664713</v>
       </c>
-      <c r="E8">
+      <c r="M8">
+        <v>27.458773011739972</v>
+      </c>
+      <c r="N8">
+        <v>6.139697921177989</v>
+      </c>
+      <c r="O8">
+        <v>18.4696249350194</v>
+      </c>
+      <c r="W8">
+        <v>-15.111279716742549</v>
+      </c>
+      <c r="X8">
+        <v>-35.311921483353423</v>
+      </c>
+      <c r="Y8">
+        <v>-44.86035637558448</v>
+      </c>
+      <c r="Z8">
         <v>-71.909537453950051</v>
       </c>
-      <c r="G8">
+      <c r="AA8">
+        <v>-10.88500073791057</v>
+      </c>
+      <c r="AB8">
+        <v>5.9493512453585833</v>
+      </c>
+      <c r="AC8">
+        <v>8.2453420690865542</v>
+      </c>
+      <c r="AK8">
+        <v>19.997654208632071</v>
+      </c>
+      <c r="AL8">
+        <v>26.740784657673871</v>
+      </c>
+      <c r="AM8">
+        <v>22.746228174266811</v>
+      </c>
+      <c r="AN8">
         <v>-44.336464261452157</v>
       </c>
-      <c r="H8">
+      <c r="AO8">
+        <v>12.70670147954743</v>
+      </c>
+      <c r="AP8">
+        <v>14.814225069025291</v>
+      </c>
+      <c r="AQ8">
+        <v>4.5681001455258112</v>
+      </c>
+      <c r="AR8">
+        <v>3.8224908325410718</v>
+      </c>
+      <c r="AS8">
+        <v>3.4126679462572049</v>
+      </c>
+      <c r="AT8">
+        <v>24.074841612884128</v>
+      </c>
+      <c r="AU8">
         <v>-45.792030098392942</v>
       </c>
+      <c r="AV8">
+        <v>1.4935505770536339</v>
+      </c>
+      <c r="AW8">
+        <v>9.835128180691882</v>
+      </c>
+      <c r="AX8">
+        <v>5.1925566595436106</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B9">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
         <v>-27.49474672508607</v>
       </c>
-      <c r="C9">
+      <c r="F9">
+        <v>40.95515447574536</v>
+      </c>
+      <c r="G9">
+        <v>75.84363781412047</v>
+      </c>
+      <c r="H9">
+        <v>89.001140822338357</v>
+      </c>
+      <c r="I9">
+        <v>15.239513788590511</v>
+      </c>
+      <c r="J9">
+        <v>1.3137491136949191</v>
+      </c>
+      <c r="K9">
+        <v>2.1467380979520572</v>
+      </c>
+      <c r="L9">
         <v>-25.194756889675642</v>
       </c>
-      <c r="D9">
+      <c r="M9">
+        <v>-19.59737159451678</v>
+      </c>
+      <c r="N9">
+        <v>-39.199048863515273</v>
+      </c>
+      <c r="O9">
+        <v>-31.129292682595889</v>
+      </c>
+      <c r="P9">
+        <v>46.545603895913409</v>
+      </c>
+      <c r="Q9">
+        <v>11.162002473320189</v>
+      </c>
+      <c r="R9">
+        <v>-11.2803814397023</v>
+      </c>
+      <c r="S9">
         <v>-51.321941121956712</v>
       </c>
-      <c r="E9">
+      <c r="T9">
+        <v>22.438372516809899</v>
+      </c>
+      <c r="U9">
+        <v>45.428773919206208</v>
+      </c>
+      <c r="V9">
+        <v>51.781047123740002</v>
+      </c>
+      <c r="W9">
+        <v>8.5199279854245979</v>
+      </c>
+      <c r="X9">
+        <v>1.0863035642771419</v>
+      </c>
+      <c r="Y9">
+        <v>5.8035714285714466</v>
+      </c>
+      <c r="Z9">
         <v>-72.730263347742536</v>
       </c>
-      <c r="F9">
+      <c r="AA9">
+        <v>-3.486268773563542</v>
+      </c>
+      <c r="AB9">
+        <v>-13.780543684599349</v>
+      </c>
+      <c r="AC9">
+        <v>0.78213373610168979</v>
+      </c>
+      <c r="AD9">
+        <v>-9.9559306168021937</v>
+      </c>
+      <c r="AE9">
+        <v>-11.086409486469901</v>
+      </c>
+      <c r="AF9">
+        <v>1.3500084233559719</v>
+      </c>
+      <c r="AG9">
         <v>-29.80172027404863</v>
       </c>
-      <c r="G9">
+      <c r="AH9">
+        <v>26.054023152779759</v>
+      </c>
+      <c r="AI9">
+        <v>12.339586591294911</v>
+      </c>
+      <c r="AJ9">
+        <v>7.8154181022831084</v>
+      </c>
+      <c r="AK9">
+        <v>8.5408891311150157</v>
+      </c>
+      <c r="AL9">
+        <v>15.008879006102481</v>
+      </c>
+      <c r="AM9">
+        <v>12.86462813795262</v>
+      </c>
+      <c r="AN9">
         <v>5.150770099069077</v>
       </c>
-      <c r="H9">
+      <c r="AO9">
+        <v>2.7650978372481898</v>
+      </c>
+      <c r="AP9">
+        <v>-14.462717158631269</v>
+      </c>
+      <c r="AQ9">
+        <v>-20.358871966910009</v>
+      </c>
+      <c r="AR9">
+        <v>-15.651544900279021</v>
+      </c>
+      <c r="AS9">
+        <v>-20.216136062369429</v>
+      </c>
+      <c r="AT9">
+        <v>-9.6576635128548105</v>
+      </c>
+      <c r="AU9">
         <v>-44.424159440133877</v>
       </c>
+      <c r="AV9">
+        <v>-5.5724820064467524</v>
+      </c>
+      <c r="AW9">
+        <v>-12.079093185571971</v>
+      </c>
+      <c r="AX9">
+        <v>-9.1667856856714032</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B10">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="E10">
         <v>-14.68758892637913</v>
       </c>
-      <c r="C10">
+      <c r="F10">
+        <v>3.0632492280236159</v>
+      </c>
+      <c r="G10">
+        <v>11.50470768223717</v>
+      </c>
+      <c r="H10">
+        <v>25.1614773265857</v>
+      </c>
+      <c r="I10">
+        <v>3.822323150259876</v>
+      </c>
+      <c r="J10">
+        <v>12.619630536389939</v>
+      </c>
+      <c r="K10">
+        <v>23.72165280488036</v>
+      </c>
+      <c r="L10">
         <v>-63.530232006170998</v>
       </c>
-      <c r="D10">
+      <c r="M10">
+        <v>-41.126447308170341</v>
+      </c>
+      <c r="N10">
+        <v>-35.844497915614568</v>
+      </c>
+      <c r="O10">
+        <v>-27.887265181541721</v>
+      </c>
+      <c r="P10">
+        <v>75.065807702964804</v>
+      </c>
+      <c r="Q10">
+        <v>62.531797524794918</v>
+      </c>
+      <c r="R10">
+        <v>64.63307840504406</v>
+      </c>
+      <c r="S10">
         <v>18.722796980120979</v>
       </c>
-      <c r="E10">
+      <c r="T10">
+        <v>-17.15341581780288</v>
+      </c>
+      <c r="U10">
+        <v>-26.84945844367974</v>
+      </c>
+      <c r="V10">
+        <v>51.880485934932388</v>
+      </c>
+      <c r="W10">
+        <v>29.665563767282141</v>
+      </c>
+      <c r="X10">
+        <v>42.125204646448879</v>
+      </c>
+      <c r="Y10">
+        <v>65.977516933224607</v>
+      </c>
+      <c r="Z10">
         <v>26.115852243309341</v>
       </c>
-      <c r="F10">
+      <c r="AA10">
+        <v>-66.730563229407451</v>
+      </c>
+      <c r="AB10">
+        <v>-41.339198080628151</v>
+      </c>
+      <c r="AC10">
+        <v>-40.529496210141723</v>
+      </c>
+      <c r="AD10">
+        <v>2.218752096110042</v>
+      </c>
+      <c r="AE10">
+        <v>3.7289590716874259</v>
+      </c>
+      <c r="AF10">
+        <v>6.8699206008309979</v>
+      </c>
+      <c r="AG10">
         <v>-12.475805547294369</v>
       </c>
-      <c r="G10">
+      <c r="AH10">
+        <v>-32.226937603250313</v>
+      </c>
+      <c r="AI10">
+        <v>-26.060070671378082</v>
+      </c>
+      <c r="AJ10">
+        <v>-14.71085681790743</v>
+      </c>
+      <c r="AK10">
+        <v>-11.41510423921908</v>
+      </c>
+      <c r="AL10">
+        <v>-18.945518066048379</v>
+      </c>
+      <c r="AM10">
+        <v>-10.62516704327332</v>
+      </c>
+      <c r="AN10">
         <v>-26.051364590622821</v>
       </c>
-      <c r="H10">
+      <c r="AO10">
+        <v>-12.671228716619771</v>
+      </c>
+      <c r="AP10">
+        <v>-0.98056627936324148</v>
+      </c>
+      <c r="AQ10">
+        <v>3.027065182281377</v>
+      </c>
+      <c r="AR10">
+        <v>51.665985878508522</v>
+      </c>
+      <c r="AS10">
+        <v>51.178655766229809</v>
+      </c>
+      <c r="AT10">
+        <v>63.958922048383783</v>
+      </c>
+      <c r="AU10">
         <v>-15.29395125170902</v>
       </c>
+      <c r="AV10">
+        <v>12.38420077480208</v>
+      </c>
+      <c r="AW10">
+        <v>24.38970534115164</v>
+      </c>
+      <c r="AX10">
+        <v>43.046812407004687</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B11">
+        <v>918.92187499999989</v>
+      </c>
+      <c r="C11">
+        <v>826.45138888888891</v>
+      </c>
+      <c r="D11">
+        <v>877.38888888888891</v>
+      </c>
+      <c r="E11">
         <v>368.31023606023609</v>
       </c>
-      <c r="C11">
+      <c r="F11">
+        <v>503.12586487586469</v>
+      </c>
+      <c r="G11">
+        <v>749.26457570207572</v>
+      </c>
+      <c r="H11">
+        <v>675.4381868131868</v>
+      </c>
+      <c r="I11">
+        <v>63.967129629629653</v>
+      </c>
+      <c r="J11">
+        <v>-35.7281635802469</v>
+      </c>
+      <c r="K11">
+        <v>-12.855246913580229</v>
+      </c>
+      <c r="L11">
         <v>347.45875420875433</v>
       </c>
-      <c r="D11">
+      <c r="M11">
+        <v>343.02193362193361</v>
+      </c>
+      <c r="N11">
+        <v>-85.466289882956616</v>
+      </c>
+      <c r="O11">
+        <v>70.948620330287</v>
+      </c>
+      <c r="P11">
+        <v>138.0107060185185</v>
+      </c>
+      <c r="Q11">
+        <v>-15.97268518518521</v>
+      </c>
+      <c r="R11">
+        <v>-126.10740740740751</v>
+      </c>
+      <c r="S11">
         <v>-1553.9260361552031</v>
       </c>
-      <c r="E11">
+      <c r="T11">
+        <v>-843.31746031746047</v>
+      </c>
+      <c r="U11">
+        <v>-603.02860449735454</v>
+      </c>
+      <c r="V11">
+        <v>-482.66121783309302</v>
+      </c>
+      <c r="W11">
+        <v>224.0730324074074</v>
+      </c>
+      <c r="X11">
+        <v>184.2362268518518</v>
+      </c>
+      <c r="Y11">
+        <v>384.34976851851849</v>
+      </c>
+      <c r="Z11">
         <v>-1150.200705467372</v>
       </c>
-      <c r="F11">
+      <c r="AA11">
+        <v>-404.5574514991182</v>
+      </c>
+      <c r="AB11">
+        <v>-229.44316578483239</v>
+      </c>
+      <c r="AC11">
+        <v>-113.9590636022928</v>
+      </c>
+      <c r="AD11">
+        <v>-487.04082029082042</v>
+      </c>
+      <c r="AE11">
+        <v>-583.94599212515891</v>
+      </c>
+      <c r="AF11">
+        <v>-593.7177996386331</v>
+      </c>
+      <c r="AG11">
         <v>-1300.854067460318</v>
       </c>
-      <c r="G11">
+      <c r="AH11">
+        <v>-930.39756393298069</v>
+      </c>
+      <c r="AI11">
+        <v>-720.29648569023561</v>
+      </c>
+      <c r="AJ11">
+        <v>-583.48281776094279</v>
+      </c>
+      <c r="AK11">
+        <v>29.44237012987</v>
+      </c>
+      <c r="AL11">
+        <v>0.97998737373740141</v>
+      </c>
+      <c r="AM11">
+        <v>9.1106361231361745</v>
+      </c>
+      <c r="AN11">
         <v>-297.43865393865411</v>
       </c>
-      <c r="H11">
+      <c r="AO11">
+        <v>60.736106486106507</v>
+      </c>
+      <c r="AP11">
+        <v>-60.932812557812611</v>
+      </c>
+      <c r="AQ11">
+        <v>-111.7283357075025</v>
+      </c>
+      <c r="AR11">
+        <v>589.64803886200946</v>
+      </c>
+      <c r="AS11">
+        <v>810.03721069235769</v>
+      </c>
+      <c r="AT11">
+        <v>531.1697323373794</v>
+      </c>
+      <c r="AU11">
         <v>-69.767160790598254</v>
+      </c>
+      <c r="AV11">
+        <v>433.44401709401711</v>
+      </c>
+      <c r="AW11">
+        <v>497.02830433455432</v>
+      </c>
+      <c r="AX11">
+        <v>479.20101781898649</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H10">
+  <conditionalFormatting sqref="B2:AX11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{8781F107-44BC-4EC6-938C-0600E3401B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A28F2FFB-BD3A-4FBB-BB7E-1060C96D2368}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_7E31D4A98760D36607DA2511595ED87656CD6E85" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E21FA24B-91A5-4314-95E7-A7C34DC31C91}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     <t>ECHL16</t>
   </si>
   <si>
-    <t>Bilan en Watt</t>
+    <t>Bilan en kWh</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8:AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,26 +720,17 @@
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="C2">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
       <c r="E2">
-        <v>29.158609339642052</v>
+        <v>-13.89426044023863</v>
       </c>
       <c r="F2">
-        <v>48.27428401145152</v>
+        <v>-1.1504773256989791</v>
       </c>
       <c r="G2">
-        <v>49.504102841036357</v>
+        <v>-0.33059810597576739</v>
       </c>
       <c r="H2">
-        <v>43.703495076900843</v>
+        <v>-4.1976699487327851</v>
       </c>
       <c r="I2">
         <v>-1.4249905348773431</v>
@@ -805,25 +796,25 @@
         <v>-28.19401601322415</v>
       </c>
       <c r="AR2">
-        <v>24.993366588834618</v>
+        <v>-16.671088940776912</v>
       </c>
       <c r="AS2">
-        <v>16.418433502715938</v>
+        <v>-22.38771099818937</v>
       </c>
       <c r="AT2">
-        <v>9.1705937794533519</v>
+        <v>-27.219604147031099</v>
       </c>
       <c r="AU2">
         <v>-4.0021572548931417</v>
       </c>
       <c r="AV2">
-        <v>6.5343038459616327</v>
+        <v>-28.977130769358901</v>
       </c>
       <c r="AW2">
-        <v>3.4832433323714831</v>
+        <v>-31.01117111175234</v>
       </c>
       <c r="AX2">
-        <v>17.57719714964372</v>
+        <v>-21.615201900237519</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
@@ -831,13 +822,13 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>60.461126125620979</v>
+        <v>6.9740840837473099</v>
       </c>
       <c r="C3">
-        <v>61.242903041239387</v>
+        <v>7.4952686941595932</v>
       </c>
       <c r="D3">
-        <v>49.865711727842438</v>
+        <v>-8.9525514771713999E-2</v>
       </c>
       <c r="E3">
         <v>-79.150035422141897</v>
@@ -873,13 +864,13 @@
         <v>-4.6860757155341243E-2</v>
       </c>
       <c r="P3">
-        <v>32.227607251839892</v>
+        <v>-11.84826183210674</v>
       </c>
       <c r="Q3">
-        <v>31.993510495139141</v>
+        <v>-12.0043263365739</v>
       </c>
       <c r="R3">
-        <v>37.147429485897177</v>
+        <v>-8.5683803427352139</v>
       </c>
       <c r="S3">
         <v>-25.88088779134835</v>
@@ -957,25 +948,25 @@
         <v>-4.6735584476037157</v>
       </c>
       <c r="AR3">
-        <v>42.05276713588583</v>
+        <v>-5.2981552427427854</v>
       </c>
       <c r="AS3">
-        <v>35.00035796959645</v>
+        <v>-9.9997613536023611</v>
       </c>
       <c r="AT3">
-        <v>34.60095693779904</v>
+        <v>-10.26602870813397</v>
       </c>
       <c r="AU3">
         <v>-4.3507618897566829</v>
       </c>
       <c r="AV3">
-        <v>28.267019436247079</v>
+        <v>-14.488653709168609</v>
       </c>
       <c r="AW3">
-        <v>36.798551848978533</v>
+        <v>-8.8009654340143122</v>
       </c>
       <c r="AX3">
-        <v>40.188779579898963</v>
+        <v>-6.5408136134006911</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
@@ -983,13 +974,13 @@
         <v>51</v>
       </c>
       <c r="B4">
-        <v>92.923901180672672</v>
+        <v>28.615934120448461</v>
       </c>
       <c r="C4">
-        <v>79.037376586741885</v>
+        <v>19.358251057827928</v>
       </c>
       <c r="D4">
-        <v>52.371414264253538</v>
+        <v>1.5809428428356891</v>
       </c>
       <c r="E4">
         <v>-13.5031205017746</v>
@@ -1088,25 +1079,25 @@
         <v>20.570630817645512</v>
       </c>
       <c r="AR4">
-        <v>48.662279168705631</v>
+        <v>-0.89181388752958524</v>
       </c>
       <c r="AS4">
-        <v>41.319124476519789</v>
+        <v>-5.7872503489868059</v>
       </c>
       <c r="AT4">
-        <v>40.77477119699622</v>
+        <v>-6.1501525353358577</v>
       </c>
       <c r="AU4">
         <v>-38.538331135807127</v>
       </c>
       <c r="AV4">
-        <v>0.1130019733180348</v>
+        <v>-33.257998684454641</v>
       </c>
       <c r="AW4">
-        <v>22.619954303122618</v>
+        <v>-18.253363797918261</v>
       </c>
       <c r="AX4">
-        <v>36.445713403812007</v>
+        <v>-9.0361910641253296</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
@@ -1114,13 +1105,13 @@
         <v>52</v>
       </c>
       <c r="B5">
-        <v>129.49075721536531</v>
+        <v>52.993838143576887</v>
       </c>
       <c r="C5">
-        <v>129.78723404255319</v>
+        <v>53.191489361702118</v>
       </c>
       <c r="D5">
-        <v>129.1088222122705</v>
+        <v>52.739214808180321</v>
       </c>
       <c r="E5">
         <v>-35.924328761658479</v>
@@ -1156,13 +1147,13 @@
         <v>3.342953502092016</v>
       </c>
       <c r="P5">
-        <v>80.457131450244518</v>
+        <v>20.304754300163019</v>
       </c>
       <c r="Q5">
-        <v>74.358029015429423</v>
+        <v>16.238686010286269</v>
       </c>
       <c r="R5">
-        <v>71.734230445752729</v>
+        <v>14.48948696383515</v>
       </c>
       <c r="S5">
         <v>-8.3783505574701298</v>
@@ -1240,25 +1231,25 @@
         <v>11.51527082513077</v>
       </c>
       <c r="AR5">
-        <v>87.533702989711927</v>
+        <v>25.022468659807942</v>
       </c>
       <c r="AS5">
-        <v>109.36516778277</v>
+        <v>39.576778521846663</v>
       </c>
       <c r="AT5">
-        <v>72.712561090073478</v>
+        <v>15.141707393382321</v>
       </c>
       <c r="AU5">
         <v>49.318157473351157</v>
       </c>
       <c r="AV5">
-        <v>54.296928483410163</v>
+        <v>2.8646189889401121</v>
       </c>
       <c r="AW5">
-        <v>71.882182780387708</v>
+        <v>14.58812185359181</v>
       </c>
       <c r="AX5">
-        <v>71.481645611883778</v>
+        <v>14.32109707458917</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
@@ -1266,13 +1257,13 @@
         <v>53</v>
       </c>
       <c r="B6">
-        <v>96.902469652574283</v>
+        <v>31.268313101716199</v>
       </c>
       <c r="C6">
-        <v>115.3138157250563</v>
+        <v>43.542543816704203</v>
       </c>
       <c r="D6">
-        <v>105.8543226684819</v>
+        <v>37.236215112321297</v>
       </c>
       <c r="E6">
         <v>-43.883265048208983</v>
@@ -1350,51 +1341,42 @@
         <v>-21.78511161281871</v>
       </c>
       <c r="AR6">
-        <v>82.190865206089867</v>
+        <v>21.460576804059901</v>
       </c>
       <c r="AS6">
-        <v>89.278859336440902</v>
+        <v>26.185906224293941</v>
       </c>
       <c r="AT6">
-        <v>90.095877676180422</v>
+        <v>26.730585117453622</v>
       </c>
       <c r="AU6">
         <v>13.90386820092565</v>
       </c>
       <c r="AV6">
-        <v>76.565443865676599</v>
+        <v>17.71029591045107</v>
       </c>
       <c r="AW6">
-        <v>64.124687560084581</v>
+        <v>9.4164583733897196</v>
       </c>
       <c r="AX6">
-        <v>57.85776702292128</v>
+        <v>5.2385113486141774</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="C7">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
       <c r="E7">
-        <v>132.03777514227019</v>
+        <v>54.691850094846806</v>
       </c>
       <c r="F7">
-        <v>64.797181785214718</v>
+        <v>9.8647878568098211</v>
       </c>
       <c r="G7">
-        <v>96.097670902953496</v>
+        <v>30.73178060196901</v>
       </c>
       <c r="H7">
-        <v>76.751154950680515</v>
+        <v>17.834103300453659</v>
       </c>
       <c r="I7">
         <v>-15.497085297084039</v>
@@ -1418,13 +1400,13 @@
         <v>32.46957275452344</v>
       </c>
       <c r="P7">
-        <v>-2.715991571060647</v>
+        <v>-35.143994380707099</v>
       </c>
       <c r="Q7">
-        <v>10.576789437109101</v>
+        <v>-26.2821403752606</v>
       </c>
       <c r="R7">
-        <v>-4.4014578076815374</v>
+        <v>-36.267638538454356</v>
       </c>
       <c r="S7">
         <v>-73.493109543298687</v>
@@ -1502,51 +1484,42 @@
         <v>-11.20301645803964</v>
       </c>
       <c r="AR7">
-        <v>42.393571184547987</v>
+        <v>-5.0709525436346752</v>
       </c>
       <c r="AS7">
-        <v>51.330856146204582</v>
+        <v>0.88723743080306361</v>
       </c>
       <c r="AT7">
-        <v>-7.6978262429155579</v>
+        <v>-38.465217495277052</v>
       </c>
       <c r="AU7">
         <v>35.442400657174993</v>
       </c>
       <c r="AV7">
-        <v>43.918981410118093</v>
+        <v>-4.0540123932546166</v>
       </c>
       <c r="AW7">
-        <v>40.62241093620549</v>
+        <v>-6.2517260425296763</v>
       </c>
       <c r="AX7">
-        <v>56.550493636255517</v>
+        <v>4.3669957575036742</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="C8">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="D8">
-        <v>50.000000000000007</v>
-      </c>
       <c r="E8">
-        <v>-4.7526164365327039</v>
+        <v>-36.501744291021801</v>
       </c>
       <c r="F8">
-        <v>56.157390313207337</v>
+        <v>4.1049268754715662</v>
       </c>
       <c r="G8">
-        <v>55.877038009186819</v>
+        <v>3.918025339457881</v>
       </c>
       <c r="H8">
-        <v>54.006131966093818</v>
+        <v>2.670754644062546</v>
       </c>
       <c r="I8">
         <v>6.4920009274287187</v>
@@ -1612,51 +1585,42 @@
         <v>4.5681001455258112</v>
       </c>
       <c r="AR8">
-        <v>3.8224908325410718</v>
+        <v>-30.785006111639291</v>
       </c>
       <c r="AS8">
-        <v>3.4126679462572049</v>
+        <v>-31.05822136916186</v>
       </c>
       <c r="AT8">
-        <v>24.074841612884128</v>
+        <v>-17.283438924743908</v>
       </c>
       <c r="AU8">
         <v>-45.792030098392942</v>
       </c>
       <c r="AV8">
-        <v>1.4935505770536339</v>
+        <v>-32.337632948630912</v>
       </c>
       <c r="AW8">
-        <v>9.835128180691882</v>
+        <v>-26.776581212872081</v>
       </c>
       <c r="AX8">
-        <v>5.1925566595436106</v>
+        <v>-29.871628893637592</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
       <c r="E9">
-        <v>-27.49474672508607</v>
+        <v>-51.663164483390709</v>
       </c>
       <c r="F9">
-        <v>40.95515447574536</v>
+        <v>-6.0298970161697563</v>
       </c>
       <c r="G9">
-        <v>75.84363781412047</v>
+        <v>17.2290918760803</v>
       </c>
       <c r="H9">
-        <v>89.001140822338357</v>
+        <v>26.000760548225578</v>
       </c>
       <c r="I9">
         <v>15.239513788590511</v>
@@ -1680,13 +1644,13 @@
         <v>-31.129292682595889</v>
       </c>
       <c r="P9">
-        <v>46.545603895913409</v>
+        <v>-2.3029307360577298</v>
       </c>
       <c r="Q9">
-        <v>11.162002473320189</v>
+        <v>-25.89199835111987</v>
       </c>
       <c r="R9">
-        <v>-11.2803814397023</v>
+        <v>-40.853587626468197</v>
       </c>
       <c r="S9">
         <v>-51.321941121956712</v>
@@ -1764,51 +1728,42 @@
         <v>-20.358871966910009</v>
       </c>
       <c r="AR9">
-        <v>-15.651544900279021</v>
+        <v>-43.767696600186007</v>
       </c>
       <c r="AS9">
-        <v>-20.216136062369429</v>
+        <v>-46.810757374912953</v>
       </c>
       <c r="AT9">
-        <v>-9.6576635128548105</v>
+        <v>-39.77177567523654</v>
       </c>
       <c r="AU9">
         <v>-44.424159440133877</v>
       </c>
       <c r="AV9">
-        <v>-5.5724820064467524</v>
+        <v>-37.048321337631172</v>
       </c>
       <c r="AW9">
-        <v>-12.079093185571971</v>
+        <v>-41.386062123714638</v>
       </c>
       <c r="AX9">
-        <v>-9.1667856856714032</v>
+        <v>-39.444523790447597</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>50.000000000000007</v>
-      </c>
       <c r="E10">
-        <v>-14.68758892637913</v>
+        <v>-43.12505928425275</v>
       </c>
       <c r="F10">
-        <v>3.0632492280236159</v>
+        <v>-31.29116718131759</v>
       </c>
       <c r="G10">
-        <v>11.50470768223717</v>
+        <v>-25.663528211841889</v>
       </c>
       <c r="H10">
-        <v>25.1614773265857</v>
+        <v>-16.55901511560953</v>
       </c>
       <c r="I10">
         <v>3.822323150259876</v>
@@ -1832,13 +1787,13 @@
         <v>-27.887265181541721</v>
       </c>
       <c r="P10">
-        <v>75.065807702964804</v>
+        <v>16.710538468643211</v>
       </c>
       <c r="Q10">
-        <v>62.531797524794918</v>
+        <v>8.3545316831966208</v>
       </c>
       <c r="R10">
-        <v>64.63307840504406</v>
+        <v>9.755385603362706</v>
       </c>
       <c r="S10">
         <v>18.722796980120979</v>
@@ -1916,25 +1871,25 @@
         <v>3.027065182281377</v>
       </c>
       <c r="AR10">
-        <v>51.665985878508522</v>
+        <v>1.110657252339011</v>
       </c>
       <c r="AS10">
-        <v>51.178655766229809</v>
+        <v>0.7857705108198797</v>
       </c>
       <c r="AT10">
-        <v>63.958922048383783</v>
+        <v>9.3059480322558521</v>
       </c>
       <c r="AU10">
         <v>-15.29395125170902</v>
       </c>
       <c r="AV10">
-        <v>12.38420077480208</v>
+        <v>-25.077199483465279</v>
       </c>
       <c r="AW10">
-        <v>24.38970534115164</v>
+        <v>-17.073529772565571</v>
       </c>
       <c r="AX10">
-        <v>43.046812407004687</v>
+        <v>-4.6354583953302049</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
@@ -1942,155 +1897,155 @@
         <v>58</v>
       </c>
       <c r="B11">
-        <v>918.92187499999989</v>
+        <v>112.88283333333329</v>
       </c>
       <c r="C11">
-        <v>826.45138888888891</v>
+        <v>48.421125000000004</v>
       </c>
       <c r="D11">
-        <v>877.38888888888891</v>
+        <v>25.113916666666672</v>
       </c>
       <c r="E11">
-        <v>368.31023606023609</v>
+        <v>-18.366280303030301</v>
       </c>
       <c r="F11">
-        <v>503.12586487586469</v>
+        <v>-7.1838333333333342</v>
       </c>
       <c r="G11">
-        <v>749.26457570207572</v>
+        <v>29.252333333333329</v>
       </c>
       <c r="H11">
-        <v>675.4381868131868</v>
+        <v>81.712458333333331</v>
       </c>
       <c r="I11">
-        <v>63.967129629629653</v>
+        <v>70.679124999999999</v>
       </c>
       <c r="J11">
-        <v>-35.7281635802469</v>
+        <v>18.372041666666671</v>
       </c>
       <c r="K11">
-        <v>-12.855246913580229</v>
+        <v>-6.9116666666666671</v>
       </c>
       <c r="L11">
-        <v>347.45875420875433</v>
+        <v>3.924000000000003</v>
       </c>
       <c r="M11">
-        <v>343.02193362193361</v>
+        <v>1.871999999999997</v>
       </c>
       <c r="N11">
-        <v>-85.466289882956616</v>
+        <v>20.684458333333328</v>
       </c>
       <c r="O11">
-        <v>70.948620330287</v>
+        <v>86.683233333333348</v>
       </c>
       <c r="P11">
-        <v>138.0107060185185</v>
+        <v>49.647041666666667</v>
       </c>
       <c r="Q11">
-        <v>-15.97268518518521</v>
+        <v>13.47666666666667</v>
       </c>
       <c r="R11">
-        <v>-126.10740740740751</v>
+        <v>3.008083333333333</v>
       </c>
       <c r="S11">
-        <v>-1553.9260361552031</v>
+        <v>-14.466166666666661</v>
       </c>
       <c r="T11">
-        <v>-843.31746031746047</v>
+        <v>-5.9944166666666652</v>
       </c>
       <c r="U11">
-        <v>-603.02860449735454</v>
+        <v>19.911458333333329</v>
       </c>
       <c r="V11">
-        <v>-482.66121783309302</v>
+        <v>75.818265151515149</v>
       </c>
       <c r="W11">
-        <v>224.0730324074074</v>
+        <v>83.995312499999997</v>
       </c>
       <c r="X11">
-        <v>184.2362268518518</v>
+        <v>25.110875</v>
       </c>
       <c r="Y11">
-        <v>384.34976851851849</v>
+        <v>-0.2370000000000001</v>
       </c>
       <c r="Z11">
-        <v>-1150.200705467372</v>
+        <v>-23.3825</v>
       </c>
       <c r="AA11">
-        <v>-404.5574514991182</v>
+        <v>-8.9670000000000005</v>
       </c>
       <c r="AB11">
-        <v>-229.44316578483239</v>
+        <v>23.331583333333331</v>
       </c>
       <c r="AC11">
-        <v>-113.9590636022928</v>
+        <v>68.594354166666662</v>
       </c>
       <c r="AD11">
-        <v>-487.04082029082042</v>
+        <v>34.904499999999999</v>
       </c>
       <c r="AE11">
-        <v>-583.94599212515891</v>
+        <v>3.579583333333332</v>
       </c>
       <c r="AF11">
-        <v>-593.7177996386331</v>
+        <v>-9.2345833333333331</v>
       </c>
       <c r="AG11">
-        <v>-1300.854067460318</v>
+        <v>-4.6794583333333328</v>
       </c>
       <c r="AH11">
-        <v>-930.39756393298069</v>
+        <v>-11.716625000000001</v>
       </c>
       <c r="AI11">
-        <v>-720.29648569023561</v>
+        <v>2.0725833333333341</v>
       </c>
       <c r="AJ11">
-        <v>-583.48281776094279</v>
+        <v>33.198145833333328</v>
       </c>
       <c r="AK11">
-        <v>29.44237012987</v>
+        <v>71.030145833333336</v>
       </c>
       <c r="AL11">
-        <v>0.97998737373740141</v>
+        <v>23.18429166666666</v>
       </c>
       <c r="AM11">
-        <v>9.1106361231361745</v>
+        <v>-7.0583333333333327</v>
       </c>
       <c r="AN11">
-        <v>-297.43865393865411</v>
+        <v>15.483499999999999</v>
       </c>
       <c r="AO11">
-        <v>60.736106486106507</v>
+        <v>-4.2560833333333354</v>
       </c>
       <c r="AP11">
-        <v>-60.932812557812611</v>
+        <v>21.914874999999999</v>
       </c>
       <c r="AQ11">
-        <v>-111.7283357075025</v>
+        <v>63.90627083333333</v>
       </c>
       <c r="AR11">
-        <v>589.64803886200946</v>
+        <v>63.908958333333317</v>
       </c>
       <c r="AS11">
-        <v>810.03721069235769</v>
+        <v>23.741583333333342</v>
       </c>
       <c r="AT11">
-        <v>531.1697323373794</v>
+        <v>-9.2306666666666626</v>
       </c>
       <c r="AU11">
-        <v>-69.767160790598254</v>
+        <v>10.95220833333333</v>
       </c>
       <c r="AV11">
-        <v>433.44401709401711</v>
+        <v>-9.8982500000000009</v>
       </c>
       <c r="AW11">
-        <v>497.02830433455432</v>
+        <v>14.866</v>
       </c>
       <c r="AX11">
-        <v>479.20101781898649</v>
+        <v>56.480791666666683</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AX11">
+  <conditionalFormatting sqref="A1:AX11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_7E31D4A98760D36607DA2511595ED87656CD6E85" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E21FA24B-91A5-4314-95E7-A7C34DC31C91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{C2C4A716-04E3-4515-AA7F-7F65F4718712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="1440" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{2D067F90-1E24-4E96-BE39-8BA8548454DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8DC2F91-4918-4AA2-8C5E-7A58C13EBA8D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{81579EE5-8061-4999-B785-2255A7B42AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A543101E-65E0-4B7F-A466-BE02B7403A21}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="5370" windowWidth="17280" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,151 +22,151 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
-    <t>A1 -12h</t>
-  </si>
-  <si>
-    <t>A1 -6h</t>
-  </si>
-  <si>
-    <t>A1 -3h</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A1 3h</t>
-  </si>
-  <si>
-    <t>A1 6h</t>
-  </si>
-  <si>
-    <t>A1 12h</t>
-  </si>
-  <si>
-    <t>A2 -12h</t>
-  </si>
-  <si>
-    <t>A2 -6h</t>
-  </si>
-  <si>
-    <t>A2 -3h</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A2 3h</t>
-  </si>
-  <si>
-    <t>A2 6h</t>
-  </si>
-  <si>
-    <t>A2 12h</t>
-  </si>
-  <si>
-    <t>A3 -12h</t>
-  </si>
-  <si>
-    <t>A3 -6h</t>
-  </si>
-  <si>
-    <t>A3 -3h</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A3 3h</t>
-  </si>
-  <si>
-    <t>A3 6h</t>
-  </si>
-  <si>
-    <t>A3 12h</t>
-  </si>
-  <si>
-    <t>A4 -12h</t>
-  </si>
-  <si>
-    <t>A4 -6h</t>
-  </si>
-  <si>
-    <t>A4 -3h</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A4 3h</t>
-  </si>
-  <si>
-    <t>A4 6h</t>
-  </si>
-  <si>
-    <t>A4 12h</t>
-  </si>
-  <si>
-    <t>A5 -12h</t>
-  </si>
-  <si>
-    <t>A5 -6h</t>
-  </si>
-  <si>
-    <t>A5 -3h</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A5 3h</t>
-  </si>
-  <si>
-    <t>A5 6h</t>
-  </si>
-  <si>
-    <t>A5 12h</t>
-  </si>
-  <si>
-    <t>A6 -12h</t>
-  </si>
-  <si>
-    <t>A6 -6h</t>
-  </si>
-  <si>
-    <t>A6 -3h</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A6 3h</t>
-  </si>
-  <si>
-    <t>A6 6h</t>
-  </si>
-  <si>
-    <t>A6 12h</t>
-  </si>
-  <si>
-    <t>A7 -12h</t>
-  </si>
-  <si>
-    <t>A7 -6h</t>
-  </si>
-  <si>
-    <t>A7 -3h</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A7 3h</t>
-  </si>
-  <si>
-    <t>A7 6h</t>
-  </si>
-  <si>
-    <t>A7 12h</t>
+    <t>A1-12h</t>
+  </si>
+  <si>
+    <t>A1-6h</t>
+  </si>
+  <si>
+    <t>A1-3h</t>
+  </si>
+  <si>
+    <t>Jeudi5 Mai 18h - 21h</t>
+  </si>
+  <si>
+    <t>A1+3h</t>
+  </si>
+  <si>
+    <t>A1+6h</t>
+  </si>
+  <si>
+    <t>A1+12h</t>
+  </si>
+  <si>
+    <t>A2-12h</t>
+  </si>
+  <si>
+    <t>A2-6h</t>
+  </si>
+  <si>
+    <t>A2-3h</t>
+  </si>
+  <si>
+    <t>Samedi21 Mai 11h - 14h</t>
+  </si>
+  <si>
+    <t>A2+3h</t>
+  </si>
+  <si>
+    <t>A2+6h</t>
+  </si>
+  <si>
+    <t>A2+12h</t>
+  </si>
+  <si>
+    <t>A3-12h</t>
+  </si>
+  <si>
+    <t>A3-6h</t>
+  </si>
+  <si>
+    <t>A3-3h</t>
+  </si>
+  <si>
+    <t>Dimanche5 Juin 10h - 13h</t>
+  </si>
+  <si>
+    <t>A3+3h</t>
+  </si>
+  <si>
+    <t>A3+6h</t>
+  </si>
+  <si>
+    <t>A3+12h</t>
+  </si>
+  <si>
+    <t>A4-12h</t>
+  </si>
+  <si>
+    <t>A4-6h</t>
+  </si>
+  <si>
+    <t>A4-3h</t>
+  </si>
+  <si>
+    <t>Mardi21 Juin 17h - 20h</t>
+  </si>
+  <si>
+    <t>A4+3h</t>
+  </si>
+  <si>
+    <t>A4+6h</t>
+  </si>
+  <si>
+    <t>A4+12h</t>
+  </si>
+  <si>
+    <t>A5-12h</t>
+  </si>
+  <si>
+    <t>A5-6h</t>
+  </si>
+  <si>
+    <t>A5-3h</t>
+  </si>
+  <si>
+    <t>Mardi12 Juillet 16h - 22h</t>
+  </si>
+  <si>
+    <t>A5+3h</t>
+  </si>
+  <si>
+    <t>A5+6h</t>
+  </si>
+  <si>
+    <t>A5+12h</t>
+  </si>
+  <si>
+    <t>A6-12h</t>
+  </si>
+  <si>
+    <t>A6-6h</t>
+  </si>
+  <si>
+    <t>A6-3h</t>
+  </si>
+  <si>
+    <t>Lundi18 Juillet 14h - 20h</t>
+  </si>
+  <si>
+    <t>A6+3h</t>
+  </si>
+  <si>
+    <t>A6+6h</t>
+  </si>
+  <si>
+    <t>A6+12h</t>
+  </si>
+  <si>
+    <t>A7-12h</t>
+  </si>
+  <si>
+    <t>A7-6h</t>
+  </si>
+  <si>
+    <t>A7-3h</t>
+  </si>
+  <si>
+    <t>Vendredi5 Aout 15h - 21h</t>
+  </si>
+  <si>
+    <t>A7+3h</t>
+  </si>
+  <si>
+    <t>A7+6h</t>
+  </si>
+  <si>
+    <t>A7+12h</t>
   </si>
   <si>
     <t>ECHL01</t>
@@ -252,10 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -562,1582 +561,1532 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>5.6716698524112399</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>18.730188943099542</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>30.30787115449758</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>-24.86519857722195</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>-2.2787712504783628</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>0.29035282015545749</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>-5.8543275706586346</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>-5.79609211262839</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>2.3581865316897268</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>11.42290249433105</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>-14.62470013584208</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>42.788534671969053</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>35.863029475178443</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>27.694328692487431</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>13.38705275569229</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2">
         <v>14.128429349665399</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2">
         <v>16.35923921954419</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2">
         <v>-7.7902621722846428</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2">
         <v>-7.8826298911935284</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2">
         <v>-27.075084965488241</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2">
         <v>-12.071110268322739</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1">
+      <c r="AK2">
         <v>-33.083833876603798</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2">
         <v>-40.639669317682262</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2">
         <v>-57.922676158687537</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2">
         <v>-47.36409671207474</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2">
         <v>-44.181490074761541</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2">
         <v>-61.089607693148281</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2">
         <v>-45.418958781790643</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2">
         <v>-25.3465165867362</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2">
         <v>-33.341707280309492</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2">
         <v>-39.657167345189627</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2">
         <v>-36.989712019039338</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2">
         <v>-46.847413645376882</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2">
         <v>-49.470342782673157</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2">
         <v>-36.733944954128447</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2.2101072658704108</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>-0.56651044048163468</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>-12.39969367029601</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>-89.495806747039168</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>-44.1582208397082</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>-2.2153262503039248</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>6.8667312941656649</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>-0.28067935799197241</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>11.012023195085391</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>14.36419206351859</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>-27.602818833909382</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>33.203968253968263</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>16.33138435665488</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>3.5865301434770638</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>-16.622393126014629</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>-19.09675327591513</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>-11.652998083767869</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>-36.054424972122597</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>-53.574931386910471</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>-34.166094972422393</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>-33.035095468000129</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>11.971082448547859</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3">
         <v>7.8372501923107043</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>-6.7967696101941204</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3">
         <v>1.8029737289383061</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3">
         <v>-23.13228362017357</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3">
         <v>-12.140348496728221</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3">
         <v>-21.224450135620181</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3">
         <v>-16.100858649871199</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3">
         <v>-18.044939815345231</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3">
         <v>-19.1083542798454</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3">
         <v>-21.15175752615152</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3">
         <v>-21.834970205767139</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3">
         <v>-27.939729525522921</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3">
         <v>-19.611029109679659</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3">
         <v>1.755309812181852</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3">
         <v>-29.668198481312668</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3">
         <v>-29.19898014282051</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3">
         <v>-22.588258230409309</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3">
         <v>-29.221470726909129</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3">
         <v>-21.133163470564568</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3">
         <v>-10.047843098472979</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3">
         <v>-8.7372015485155519</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3">
         <v>-16.290526283704139</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3">
         <v>-16.754944890961291</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3">
         <v>-23.001217114325492</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3">
         <v>-25.692722486413029</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3">
         <v>-16.33354036098093</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3">
         <v>-12.36784124683928</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>5.6073556985578321</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>-3.433458754778032</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>-16.39839112473452</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>-44.788254912424193</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>17.67739805184085</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>13.113348029645</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>25.998452423141782</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>2.8705390801709032</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>4.5567135412948758</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>12.05551488048124</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>-4.9200223691464453</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>35.226844230256333</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>30.070286205255531</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>14.227413897848409</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>19.65864832598314</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4">
         <v>13.673954205454081</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4">
         <v>16.584910411933649</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4">
         <v>-85.725000715696652</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4">
         <v>8.7925324813710475</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4">
         <v>1.796407185628742</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <v>-5.3713162200223739</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4">
         <v>-48.021803483349167</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4">
         <v>-57.766395131600632</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4">
         <v>-58.181034482758619</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4">
         <v>-70.83339990732901</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4">
         <v>-63.152504893786698</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4">
         <v>-44.040193524376633</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4">
         <v>-44.291138170872777</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4">
         <v>15.522654993997509</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4">
         <v>32.857658135135331</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4">
         <v>54.642570632593817</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4">
         <v>-74.100291842702092</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4">
         <v>131.79792062748021</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4">
         <v>38.714220320615809</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4">
         <v>23.42320563503122</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4">
         <v>-2.9592299241754891</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4">
         <v>-13.66396761133603</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4">
         <v>-13.838709042863609</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4">
         <v>-54.539107943133402</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4">
         <v>-51.760660428123323</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4">
         <v>-31.520341360766899</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4">
         <v>-16.759856494026948</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>-28.096064751640981</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1.660176377980378</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>20.779430435163281</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-68.635445579883807</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>58.404642044391053</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>39.737174190899523</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>23.37689853905297</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>8.8824357869251553</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>-34.175452850828471</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>-54.158777327793267</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>255.65609100747619</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>76.21175469246964</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>-4.7101909438919582</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>-13.50088205617004</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>10.153135643388261</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>5.9223424211224156</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>2.5574957830324418</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>-16.283753635642519</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>88.512819021022423</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>25.00079187297596</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>3.3042058937790428</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>42.257781607919689</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>-33.766901101297577</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>-4.0559070086322278</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>-74.858077302115021</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>-8.0832956088727865</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>32.805273416923349</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>31.471515498583489</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5">
         <v>-13.791164194978251</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5">
         <v>-17.885966971591209</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5">
         <v>-13.836812218908991</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5">
         <v>-66.022811104317299</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5">
         <v>-61.274954256680203</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5">
         <v>-59.69884891453183</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5">
         <v>-53.159542010443182</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5">
         <v>32.344531770989668</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5">
         <v>16.215070412150709</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5">
         <v>7.5759291192744644</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5">
         <v>-55.072244248380613</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5">
         <v>-37.561223629239429</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5">
         <v>5.9239471601299254</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5">
         <v>1.5715757687249561</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5">
         <v>62.627966949081433</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5">
         <v>114.67526983983829</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5">
         <v>35.230943613258532</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5">
         <v>29.795677423325252</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5">
         <v>5.8778056877607492</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5">
         <v>33.4865954908527</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5">
         <v>32.784991628953357</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>7.4359677005567102</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0.40570422762131853</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0.23080072185274891</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>-45.647676310821993</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>-26.277655486326172</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>-15.71894894757388</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>-5.8678922616502778</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>-19.448314422426009</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>-12.68013311663184</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>-14.736369179423001</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>-4.3341119163123087</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>-35.043274432023082</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>-36.076098520044717</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>4.901156580410583</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>-0.68084059421901155</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6">
         <v>-6.0163521365763346</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6">
         <v>-15.928251250619891</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6">
         <v>-26.86255386048677</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6">
         <v>55.741657072401978</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6">
         <v>15.435635690446389</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6">
         <v>18.999409281037089</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1">
+      <c r="AK6">
         <v>-6.6896310869207998</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6">
         <v>-9.0466223755314541</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6">
         <v>5.2014811958444813</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6">
         <v>-5.0824032223349649</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6">
         <v>-30.956273463190151</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6">
         <v>-32.739087637994047</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6">
         <v>-24.51113485843954</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6">
         <v>48.77002868737754</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6">
         <v>62.423905250199539</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6">
         <v>62.860745960219269</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6">
         <v>10.127715382066739</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6">
         <v>41.759841711309797</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6">
         <v>20.48642753634013</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6">
         <v>10.969573275154239</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>38.697445073676697</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>-2.974645671408978</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>-21.51881682561595</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>207.95223475937959</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>21.574044980482672</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>82.587890270054146</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>41.289548509291322</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>-20.22492620321831</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>-34.456494812463532</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>-37.419867827861161</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>0.58488164502139861</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>5.7302750382679806</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>-26.55997122819636</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>21.180688039610629</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>-54.822630357740657</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>-36.559013202393679</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>-46.598200615850409</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>-82.680022074931642</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>-75.317220269398817</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>-73.690720159128105</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>-77.63915956561236</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>-5.5419128325709561</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7">
         <v>21.914722984272021</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7">
         <v>25.907704321251199</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7">
         <v>-49.160432748189429</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>-61.620671421307371</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>-53.596233939716299</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>-41.098380183458239</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7">
         <v>-3.8974165132789902</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7">
         <v>-38.155129006391363</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7">
         <v>-37.661108451343047</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7">
         <v>-70.584637558850176</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7">
         <v>-46.204217511698843</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7">
         <v>-36.14071587927797</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7">
         <v>12.557999594333751</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7">
         <v>-7.9857174505127846</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7">
         <v>-4.242857962454659</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7">
         <v>1.5627294307669759</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7">
         <v>131.36503880259551</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7">
         <v>26.57119792343585</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7">
         <v>-8.5930682260957401</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7">
         <v>-12.268789714599301</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7">
         <v>-9.4927138512356741</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7">
         <v>0.21968560221176789</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7">
         <v>-53.679375623505578</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7">
         <v>15.95016559502036</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7">
         <v>-7.8357430761569562</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AW7">
         <v>-11.86751668679379</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AX7">
         <v>9.0736301228796741</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>10.423934834117841</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>9.7291591089226355</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>-4.7258455556999106</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>-55.862798885803691</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>8.5052759781796521</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>10.234237255951101</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>8.7788427027843881</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>23.182123158160739</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>27.152044629947898</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>40.543053454362067</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>17.263368862166342</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>63.584727043231297</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>15.305768394256811</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>38.456460966370017</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>-21.421873707241289</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8">
         <v>-46.634247982041352</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8">
         <v>-57.388698204248143</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8">
         <v>-85.505530973451329</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8">
         <v>-15.70583553806113</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8">
         <v>9.1213583764610267</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8">
         <v>10.05173145967648</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1">
+      <c r="AK8">
         <v>26.11678746668305</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8">
         <v>37.832124503407812</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8">
         <v>34.759733223625112</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8">
         <v>-58.264335912124267</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8">
         <v>13.53428113420755</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AP8">
         <v>18.71753502972485</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8">
         <v>2.612614487926725</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AR8">
         <v>-48.070784095639418</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8">
         <v>-50.554824148956158</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8">
         <v>-43.161125744032191</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8">
         <v>-64.375802718921676</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AV8">
         <v>-51.143647307629728</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AW8">
         <v>-43.929121360718263</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8">
         <v>-48.009526197041858</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>19.176134501428969</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2.822052565613197</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>26.072934490344661</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>-71.370411126426092</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>-11.46085973187316</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>41.548481137563833</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>69.232240539975649</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>31.587246535889921</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>13.302903986772341</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>17.44346584146632</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>-39.951439334349217</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>-36.73837143822503</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>-52.515355367066377</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>-41.067757934637058</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>-5.2186971582518522</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>-42.6765538905196</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>-59.229205377636909</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>-65.61973053329065</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>16.381496934638399</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>82.966049445513562</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9">
         <v>93.113730193611175</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>13.244537593110319</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9">
         <v>1.636776672493804</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9">
         <v>8.9184826472962104</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9">
         <v>-85.215157550296453</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9">
         <v>-4.8636765149954559</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>-19.62040123368747</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>-0.41146113957216712</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9">
         <v>-19.03105743083103</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9">
         <v>-18.86978598091348</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9">
         <v>-3.080770555081665E-2</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9">
         <v>-41.134379799947553</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9">
         <v>41.448094583819369</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9">
         <v>5.9703989538478268</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9">
         <v>-2.7326707181708429</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9">
         <v>2.410898006354222</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9">
         <v>10.65260621214798</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9">
         <v>2.6855118261036091</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9">
         <v>-14.88315057247341</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9">
         <v>1.3823446348677899</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AP9">
         <v>-30.904452353909829</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9">
         <v>-37.546402217290023</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9">
         <v>-59.594703385003307</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9">
         <v>-62.798965424037448</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9">
         <v>-55.11486075241401</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9">
         <v>-73.268434691387796</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9">
         <v>-56.237901224519767</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AW9">
         <v>-61.098267032605861</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AX9">
         <v>-58.956197764051289</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>-31.43100575203027</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>-39.081958102539062</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>-41.503812752728628</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>-62.853573124551083</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>-49.231294041728347</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>-40.18756608191476</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>-24.692065330002649</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>4.5288359476353337</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>18.752450802410859</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>39.815156533396411</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>-64.707700550186487</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>-56.156668343620019</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>-47.955813912573731</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>-41.884584176559997</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>25.70321551056109</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>2.5865135652369822</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10">
         <v>-7.0165848810485212</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10">
         <v>21.609150758355501</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>-30.651388522785421</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>-35.565052231718909</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10">
         <v>93.93807394814813</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>50.69028116770842</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10">
         <v>76.448274254973498</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10">
         <v>135.88148865237659</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10">
         <v>41.674836837302877</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10">
         <v>-79.459498251981259</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10">
         <v>-50.023866192645293</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10">
         <v>-43.230739892699503</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10">
         <v>4.3537895590374509</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10">
         <v>5.3762581957605189</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10">
         <v>8.2237526528234373</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10">
         <v>-20.890454836643169</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10">
         <v>-41.407994257393362</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10">
         <v>-30.748481476662619</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10">
         <v>-16.013062065444519</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10">
         <v>-8.7822735020322451</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL10">
         <v>-16.050316063657441</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10">
         <v>-12.852461890828589</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10">
         <v>-22.980510178049268</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AO10">
         <v>-19.17841529858514</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AP10">
         <v>-0.30904307585027158</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10">
         <v>6.4419818172037218</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AR10">
         <v>3.571041125948736</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10">
         <v>3.7832022576950992</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10">
         <v>20.760887782591951</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AU10">
         <v>-33.205872906648906</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AV10">
         <v>-41.281127043227968</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AW10">
         <v>-29.78778048534398</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10">
         <v>-8.9166365251851722</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="1">
-        <v>-1645.7049999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-754.41099999999994</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-420.05999999999989</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-588.05499999999995</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-391.17</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-687.02599999999995</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-1178.3240000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-1369.348</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-688.78500000000008</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-432.82800000000009</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-365.45600000000002</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-326.70899999999989</v>
-      </c>
-      <c r="N11" s="1">
-        <v>-737.31599999999992</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-1494.768</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-930.29699999999991</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-386.35700000000003</v>
-      </c>
-      <c r="R11" s="1">
-        <v>-235.84</v>
-      </c>
-      <c r="S11" s="1">
-        <v>-330.22300000000013</v>
-      </c>
-      <c r="T11" s="1">
-        <v>-243.995</v>
-      </c>
-      <c r="U11" s="1">
-        <v>-573.77699999999993</v>
-      </c>
-      <c r="V11" s="1">
-        <v>-1170.3789999999999</v>
-      </c>
-      <c r="W11" s="1">
-        <v>-1437.944</v>
-      </c>
-      <c r="X11" s="1">
-        <v>-737.80200000000002</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>-368.649</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>-507.82799999999997</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>-436.85600000000011</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>-768.36299999999994</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>-1157.2139999999999</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>-1074.5070000000001</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>-553.76600000000008</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>-270.447</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>-728.70699999999999</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>-280.14400000000001</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>-458.91399999999999</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>-881.57800000000009</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>-1375.529</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>-820.81700000000012</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>-384.83499999999998</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>-1033.5809999999999</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>-432.70699999999999</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>-855.86000000000013</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>-1358.348</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>-1550.3</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>-916.51299999999992</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>-417.21499999999997</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>-840.72900000000004</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>-368.435</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>-704.11399999999992</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>-1205.9490000000001</v>
+      <c r="B11">
+        <v>-137.14208333333329</v>
+      </c>
+      <c r="C11">
+        <v>-125.7351666666667</v>
+      </c>
+      <c r="D11">
+        <v>-140.02000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-196.01833333333329</v>
+      </c>
+      <c r="F11">
+        <v>-130.38999999999999</v>
+      </c>
+      <c r="G11">
+        <v>-114.50433333333331</v>
+      </c>
+      <c r="H11">
+        <v>-98.193666666666658</v>
+      </c>
+      <c r="I11">
+        <v>-114.1123333333333</v>
+      </c>
+      <c r="J11">
+        <v>-114.7975</v>
+      </c>
+      <c r="K11">
+        <v>-144.27600000000001</v>
+      </c>
+      <c r="L11">
+        <v>-121.8186666666667</v>
+      </c>
+      <c r="M11">
+        <v>-108.90300000000001</v>
+      </c>
+      <c r="N11">
+        <v>-122.886</v>
+      </c>
+      <c r="O11">
+        <v>-124.56399999999999</v>
+      </c>
+      <c r="P11">
+        <v>-77.524750000000012</v>
+      </c>
+      <c r="Q11">
+        <v>-64.392833333333328</v>
+      </c>
+      <c r="R11">
+        <v>-78.61333333333333</v>
+      </c>
+      <c r="S11">
+        <v>-110.0743333333333</v>
+      </c>
+      <c r="T11">
+        <v>-81.331666666666678</v>
+      </c>
+      <c r="U11">
+        <v>-95.629500000000007</v>
+      </c>
+      <c r="V11">
+        <v>-97.531583333333344</v>
+      </c>
+      <c r="W11">
+        <v>-119.82866666666671</v>
+      </c>
+      <c r="X11">
+        <v>-122.967</v>
+      </c>
+      <c r="Y11">
+        <v>-122.883</v>
+      </c>
+      <c r="Z11">
+        <v>-169.27600000000001</v>
+      </c>
+      <c r="AA11">
+        <v>-145.61866666666671</v>
+      </c>
+      <c r="AB11">
+        <v>-128.06049999999999</v>
+      </c>
+      <c r="AC11">
+        <v>-96.434500000000014</v>
+      </c>
+      <c r="AD11">
+        <v>-89.542249999999996</v>
+      </c>
+      <c r="AE11">
+        <v>-92.294333333333327</v>
+      </c>
+      <c r="AF11">
+        <v>-90.148999999999987</v>
+      </c>
+      <c r="AG11">
+        <v>-121.45116666666669</v>
+      </c>
+      <c r="AH11">
+        <v>-93.38133333333333</v>
+      </c>
+      <c r="AI11">
+        <v>-76.485666666666674</v>
+      </c>
+      <c r="AJ11">
+        <v>-73.464833333333331</v>
+      </c>
+      <c r="AK11">
+        <v>-114.6274166666667</v>
+      </c>
+      <c r="AL11">
+        <v>-136.8028333333333</v>
+      </c>
+      <c r="AM11">
+        <v>-128.27833333333331</v>
+      </c>
+      <c r="AN11">
+        <v>-172.26349999999999</v>
+      </c>
+      <c r="AO11">
+        <v>-144.2356666666667</v>
+      </c>
+      <c r="AP11">
+        <v>-142.64333333333329</v>
+      </c>
+      <c r="AQ11">
+        <v>-113.1956666666667</v>
+      </c>
+      <c r="AR11">
+        <v>-129.19166666666669</v>
+      </c>
+      <c r="AS11">
+        <v>-152.75216666666671</v>
+      </c>
+      <c r="AT11">
+        <v>-139.07166666666669</v>
+      </c>
+      <c r="AU11">
+        <v>-140.1215</v>
+      </c>
+      <c r="AV11">
+        <v>-122.8116666666667</v>
+      </c>
+      <c r="AW11">
+        <v>-117.35233333333331</v>
+      </c>
+      <c r="AX11">
+        <v>-100.49575</v>
       </c>
     </row>
   </sheetData>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0D6555B187D0560B539B3811595ED87656CDACCD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8074D2DF-8F69-3B4C-8A10-75A17279935F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0E55D6AD87205348F31B3F11595ED87656CD6549" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BEB7A4-DDD5-9F41-8A6C-3B73D9BF3891}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>A1-12h</t>
   </si>
@@ -167,6 +167,153 @@
   </si>
   <si>
     <t>A7+12h</t>
+  </si>
+  <si>
+    <t>A8-12h</t>
+  </si>
+  <si>
+    <t>A8-6h</t>
+  </si>
+  <si>
+    <t>A8-3h</t>
+  </si>
+  <si>
+    <t>Dimanche21 Aout 15h - 21h</t>
+  </si>
+  <si>
+    <t>A8+3h</t>
+  </si>
+  <si>
+    <t>A8+6h</t>
+  </si>
+  <si>
+    <t>A8+12h</t>
+  </si>
+  <si>
+    <t>A9-12h</t>
+  </si>
+  <si>
+    <t>A9-6h</t>
+  </si>
+  <si>
+    <t>A9-3h</t>
+  </si>
+  <si>
+    <t>Jeudi1 Septembre 6h - 12h</t>
+  </si>
+  <si>
+    <t>A9+3h</t>
+  </si>
+  <si>
+    <t>A9+6h</t>
+  </si>
+  <si>
+    <t>A9+12h</t>
+  </si>
+  <si>
+    <t>A10-12h</t>
+  </si>
+  <si>
+    <t>A10-6h</t>
+  </si>
+  <si>
+    <t>A10-3h</t>
+  </si>
+  <si>
+    <t>Samedi24 Septembre 10h - 16h</t>
+  </si>
+  <si>
+    <t>A10+3h</t>
+  </si>
+  <si>
+    <t>A10+6h</t>
+  </si>
+  <si>
+    <t>A10+12h</t>
+  </si>
+  <si>
+    <t>A11-12h</t>
+  </si>
+  <si>
+    <t>A11-6h</t>
+  </si>
+  <si>
+    <t>A11-3h</t>
+  </si>
+  <si>
+    <t>Dimanche9 Octobre 12h - 18h</t>
+  </si>
+  <si>
+    <t>A11+3h</t>
+  </si>
+  <si>
+    <t>A11+6h</t>
+  </si>
+  <si>
+    <t>A11+12h</t>
+  </si>
+  <si>
+    <t>A12-12h</t>
+  </si>
+  <si>
+    <t>A12-6h</t>
+  </si>
+  <si>
+    <t>A12-3h</t>
+  </si>
+  <si>
+    <t>Mercredi19 Octobre 17h - 23h</t>
+  </si>
+  <si>
+    <t>A12+3h</t>
+  </si>
+  <si>
+    <t>A12+6h</t>
+  </si>
+  <si>
+    <t>A12+12h</t>
+  </si>
+  <si>
+    <t>A13-12h</t>
+  </si>
+  <si>
+    <t>A13-6h</t>
+  </si>
+  <si>
+    <t>A13-3h</t>
+  </si>
+  <si>
+    <t>Samedi5 Novembre 16h - 22h</t>
+  </si>
+  <si>
+    <t>A13+3h</t>
+  </si>
+  <si>
+    <t>A13+6h</t>
+  </si>
+  <si>
+    <t>A13+12h</t>
+  </si>
+  <si>
+    <t>A14-12h</t>
+  </si>
+  <si>
+    <t>A14-6h</t>
+  </si>
+  <si>
+    <t>A14-3h</t>
+  </si>
+  <si>
+    <t>Mardi15 Novembre 17h - 23h</t>
+  </si>
+  <si>
+    <t>A14+3h</t>
+  </si>
+  <si>
+    <t>A14+6h</t>
+  </si>
+  <si>
+    <t>A14+12h</t>
   </si>
   <si>
     <t>ECHL01</t>
@@ -560,15 +707,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:CU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:CU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -717,52 +864,199 @@
       <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AY1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1">
-        <v>1.829696077286038</v>
+        <v>-8.5820673740887656</v>
       </c>
       <c r="C2" s="1">
-        <v>13.064452633904869</v>
+        <v>-11.914904261040309</v>
       </c>
       <c r="D2" s="1">
-        <v>1.9744918116057919</v>
+        <v>-6.9762427630265478</v>
       </c>
       <c r="E2" s="1">
-        <v>-24.86519857722195</v>
+        <v>-54.249639592541541</v>
       </c>
       <c r="F2" s="1">
-        <v>-14.336284389938591</v>
+        <v>-37.686237215743198</v>
       </c>
       <c r="G2" s="1">
-        <v>-12.391000967443221</v>
+        <v>-39.632728375714073</v>
       </c>
       <c r="H2" s="1">
-        <v>-15.73217206124073</v>
+        <v>-39.150866958353582</v>
       </c>
       <c r="I2" s="1">
-        <v>-7.4819355618781236</v>
+        <v>0.95846278639097893</v>
       </c>
       <c r="J2" s="1">
-        <v>-1.9816609447655369</v>
+        <v>-0.95615134692624382</v>
       </c>
       <c r="K2" s="1">
-        <v>1.6030321949220701</v>
+        <v>0.57138301265015412</v>
       </c>
       <c r="L2" s="1">
-        <v>-14.62470013584208</v>
+        <v>-25.918495297805642</v>
       </c>
       <c r="M2" s="1">
-        <v>15.557063510015331</v>
+        <v>7.3517640539375693</v>
       </c>
       <c r="N2" s="1">
-        <v>19.877004173072692</v>
+        <v>18.426545129275471</v>
       </c>
       <c r="O2" s="1">
-        <v>19.96296765654261</v>
+        <v>12.67620906527868</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -772,25 +1066,25 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1">
-        <v>9.5054404385323181</v>
+        <v>-19.636518305362429</v>
       </c>
       <c r="X2" s="1">
-        <v>8.0879018377085785</v>
+        <v>-25.01712435394483</v>
       </c>
       <c r="Y2" s="1">
-        <v>6.3580453727986459</v>
+        <v>-31.349754633379391</v>
       </c>
       <c r="Z2" s="1">
-        <v>-7.7902621722846428</v>
+        <v>-57.495612935572829</v>
       </c>
       <c r="AA2" s="1">
-        <v>-7.848033759970316</v>
+        <v>-27.241576242147339</v>
       </c>
       <c r="AB2" s="1">
-        <v>-22.82144588348546</v>
+        <v>-17.530022534729149</v>
       </c>
       <c r="AC2" s="1">
-        <v>-18.37224270083669</v>
+        <v>-15.156701882783439</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -800,245 +1094,371 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1">
-        <v>-36.665435829621927</v>
+        <v>-4.0593419548188656</v>
       </c>
       <c r="AL2" s="1">
-        <v>-41.876204436579783</v>
+        <v>-2.8338602477019359</v>
       </c>
       <c r="AM2" s="1">
-        <v>-48.825279332880463</v>
+        <v>-5.0955786640925478</v>
       </c>
       <c r="AN2" s="1">
-        <v>-48.967933503888872</v>
+        <v>-15.232292460015231</v>
       </c>
       <c r="AO2" s="1">
-        <v>-47.542823499107669</v>
+        <v>-17.127444369521239</v>
       </c>
       <c r="AP2" s="1">
-        <v>-57.156951531081823</v>
+        <v>-17.373228346456688</v>
       </c>
       <c r="AQ2" s="1">
-        <v>-48.100038174633482</v>
+        <v>-15.86577067748617</v>
       </c>
       <c r="AR2" s="1">
-        <v>-27.790225976567161</v>
+        <v>3.0728681645763261</v>
       </c>
       <c r="AS2" s="1">
-        <v>-32.959907398113927</v>
+        <v>3.4670822290517118</v>
       </c>
       <c r="AT2" s="1">
-        <v>-35.172370027127727</v>
+        <v>3.3838049781850441</v>
       </c>
       <c r="AU2" s="1">
-        <v>-36.989712019039338</v>
+        <v>57.12890625</v>
       </c>
       <c r="AV2" s="1">
-        <v>-40.555394886103549</v>
+        <v>55.663257517936181</v>
       </c>
       <c r="AW2" s="1">
-        <v>-43.697694111140379</v>
+        <v>55.007381889763771</v>
       </c>
       <c r="AX2" s="1">
-        <v>-36.827725787593643</v>
+        <v>54.196363304093552</v>
+      </c>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1">
+        <v>12.3224799651093</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>15.97501435956347</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>21.090668619069</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>54.920767306088408</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>129.02119793685341</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>108.28469642992491</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>82.36492590385761</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1">
-        <v>-19.768852363252979</v>
+        <v>-17.789749933523709</v>
       </c>
       <c r="C3" s="1">
-        <v>-31.651613474822408</v>
+        <v>-27.858034599607642</v>
       </c>
       <c r="D3" s="1">
-        <v>-50.271766524793982</v>
+        <v>-46.54247247602752</v>
       </c>
       <c r="E3" s="1">
-        <v>-89.495806747039168</v>
+        <v>-116.167630224063</v>
       </c>
       <c r="F3" s="1">
-        <v>-67.806197144045569</v>
+        <v>-76.1920742791621</v>
       </c>
       <c r="G3" s="1">
-        <v>-33.357309736875592</v>
+        <v>-34.320647332939537</v>
       </c>
       <c r="H3" s="1">
-        <v>-15.33903542965056</v>
+        <v>-13.21844206970783</v>
       </c>
       <c r="I3" s="1">
-        <v>-5.7983579669700758</v>
+        <v>4.4413532713994748</v>
       </c>
       <c r="J3" s="1">
-        <v>-1.9609375844040171</v>
+        <v>11.91408230736466</v>
       </c>
       <c r="K3" s="1">
-        <v>-5.875693139844083</v>
+        <v>5.6302023256539044</v>
       </c>
       <c r="L3" s="1">
-        <v>-27.602818833909382</v>
+        <v>5.0989964740981746</v>
       </c>
       <c r="M3" s="1">
-        <v>-0.1946063514170967</v>
+        <v>36.807627670885203</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.16840768111877161</v>
+        <v>25.576009044906211</v>
       </c>
       <c r="O3" s="1">
-        <v>-3.341900749034711</v>
+        <v>9.6347873819368619</v>
       </c>
       <c r="P3" s="1">
-        <v>-20.904736389087649</v>
+        <v>-11.409626157539741</v>
       </c>
       <c r="Q3" s="1">
-        <v>-24.94325887124181</v>
+        <v>-12.280218032195799</v>
       </c>
       <c r="R3" s="1">
-        <v>-23.861895684866312</v>
+        <v>-11.473709030888941</v>
       </c>
       <c r="S3" s="1">
-        <v>-36.054424972122597</v>
+        <v>-20.273424474824939</v>
       </c>
       <c r="T3" s="1">
-        <v>-44.329061732125673</v>
+        <v>-40.452428476380561</v>
       </c>
       <c r="U3" s="1">
-        <v>-34.876427741405202</v>
+        <v>-32.10772768834336</v>
       </c>
       <c r="V3" s="1">
-        <v>-33.699629414315993</v>
+        <v>-27.738649671814141</v>
       </c>
       <c r="W3" s="1">
-        <v>10.060532289743501</v>
+        <v>0.40725321126259628</v>
       </c>
       <c r="X3" s="1">
-        <v>6.125086075517312</v>
+        <v>-6.6252639423673996</v>
       </c>
       <c r="Y3" s="1">
-        <v>-2.3067998176770468</v>
+        <v>-9.9449513611341622</v>
       </c>
       <c r="Z3" s="1">
-        <v>2.7252934674898852</v>
+        <v>-11.04595800130306</v>
       </c>
       <c r="AA3" s="1">
-        <v>-10.3237336510505</v>
+        <v>-18.564410880563081</v>
       </c>
       <c r="AB3" s="1">
-        <v>-6.5135523713396868</v>
+        <v>-12.07603428997392</v>
       </c>
       <c r="AC3" s="1">
-        <v>-15.472951063098369</v>
+        <v>-12.474012474012479</v>
       </c>
       <c r="AD3" s="1">
-        <v>-17.197799661064121</v>
+        <v>-10.32705967334163</v>
       </c>
       <c r="AE3" s="1">
-        <v>-18.623173250551218</v>
+        <v>-12.168741237945531</v>
       </c>
       <c r="AF3" s="1">
-        <v>-19.171818556501069</v>
+        <v>-11.27558332855587</v>
       </c>
       <c r="AG3" s="1">
-        <v>-21.15175752615152</v>
+        <v>-18.665026986404321</v>
       </c>
       <c r="AH3" s="1">
-        <v>-21.3749255030522</v>
+        <v>-18.504220853296822</v>
       </c>
       <c r="AI3" s="1">
-        <v>-24.50248604898675</v>
+        <v>-20.940882898086649</v>
       </c>
       <c r="AJ3" s="1">
-        <v>-20.221883338721469</v>
+        <v>-17.409717409717398</v>
       </c>
       <c r="AK3" s="1">
-        <v>-7.3114379332947248</v>
+        <v>-6.920633781334673</v>
       </c>
       <c r="AL3" s="1">
-        <v>-26.596159571123021</v>
+        <v>-23.736751684947791</v>
       </c>
       <c r="AM3" s="1">
-        <v>-25.267818576528992</v>
+        <v>-13.156621123562029</v>
       </c>
       <c r="AN3" s="1">
-        <v>-22.588258230409309</v>
+        <v>-12.17924488681702</v>
       </c>
       <c r="AO3" s="1">
-        <v>-24.85332857729761</v>
+        <v>-15.838796090585779</v>
       </c>
       <c r="AP3" s="1">
-        <v>-21.882050809215951</v>
+        <v>-13.294834236095021</v>
       </c>
       <c r="AQ3" s="1">
-        <v>-14.758103332531119</v>
+        <v>-5.9720501684054401</v>
       </c>
       <c r="AR3" s="1">
-        <v>-13.023447854500059</v>
+        <v>2.5773013096307529</v>
       </c>
       <c r="AS3" s="1">
-        <v>-18.615610550464218</v>
+        <v>2.0242014709396532</v>
       </c>
       <c r="AT3" s="1">
-        <v>-19.545033688197211</v>
+        <v>1.7440893618370941</v>
       </c>
       <c r="AU3" s="1">
-        <v>-23.001217114325492</v>
+        <v>29.814278187565861</v>
       </c>
       <c r="AV3" s="1">
-        <v>-23.906912840560619</v>
+        <v>30.418401744993051</v>
       </c>
       <c r="AW3" s="1">
-        <v>-19.821293901079471</v>
+        <v>30.650877587758782</v>
       </c>
       <c r="AX3" s="1">
-        <v>-16.247767766522379</v>
+        <v>30.134906563958349</v>
+      </c>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1">
+        <v>-25.438294224433541</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>-26.200615827766882</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>-25.462733841433241</v>
+      </c>
+      <c r="CR3" s="1">
+        <v>-45.060966758600657</v>
+      </c>
+      <c r="CS3" s="1">
+        <v>-45.152361238145659</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>-47.157867853624722</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>-45.200777520791299</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>-14.93110342954804</v>
+        <v>-9.2726242206687992</v>
       </c>
       <c r="C4" s="1">
-        <v>-25.440058796241171</v>
+        <v>-20.538644894380681</v>
       </c>
       <c r="D4" s="1">
-        <v>-33.23498722732959</v>
+        <v>-28.0565897244974</v>
       </c>
       <c r="E4" s="1">
-        <v>-47.801123322584253</v>
+        <v>-23.21029764080075</v>
       </c>
       <c r="F4" s="1">
-        <v>-19.1697487440955</v>
+        <v>11.27734398283363</v>
       </c>
       <c r="G4" s="1">
-        <v>-23.230368478656569</v>
+        <v>-13.38715836561015</v>
       </c>
       <c r="H4" s="1">
-        <v>-9.5872178729160531</v>
+        <v>-13.414199650191099</v>
       </c>
       <c r="I4" s="1">
-        <v>-7.7455718391042634</v>
+        <v>-8.0423917570577519</v>
       </c>
       <c r="J4" s="1">
-        <v>-7.2364142188973339</v>
+        <v>-19.16938068651778</v>
       </c>
       <c r="K4" s="1">
-        <v>-5.6022341235779791</v>
+        <v>-24.118384060628291</v>
       </c>
       <c r="L4" s="1">
-        <v>-7.9071733897742389</v>
+        <v>9.3461725198252257</v>
       </c>
       <c r="M4" s="1">
-        <v>6.201269783812883</v>
+        <v>33.260350318471339</v>
       </c>
       <c r="N4" s="1">
-        <v>5.7897645162810791</v>
+        <v>40.860820595333863</v>
       </c>
       <c r="O4" s="1">
-        <v>-1.942613006374589</v>
+        <v>17.78976991588322</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1048,287 +1468,413 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>-13.81900460344144</v>
+        <v>-10.70866141732283</v>
       </c>
       <c r="X4" s="1">
-        <v>-29.701479467502761</v>
+        <v>-20.781742825117949</v>
       </c>
       <c r="Y4" s="1">
-        <v>-43.25506881879727</v>
+        <v>-30.055380355357279</v>
       </c>
       <c r="Z4" s="1">
-        <v>-87.497716894977174</v>
+        <v>-102.14398830551831</v>
       </c>
       <c r="AA4" s="1">
-        <v>-48.865965380151607</v>
+        <v>-49.25691699604743</v>
       </c>
       <c r="AB4" s="1">
-        <v>-42.050232618760241</v>
+        <v>-45.607164027436689</v>
       </c>
       <c r="AC4" s="1">
-        <v>-37.990882839344323</v>
+        <v>-42.5647476690839</v>
       </c>
       <c r="AD4" s="1">
-        <v>-59.787969490751067</v>
+        <v>-44.513928930330628</v>
       </c>
       <c r="AE4" s="1">
-        <v>-66.410012753940833</v>
+        <v>-50.197070388851841</v>
       </c>
       <c r="AF4" s="1">
-        <v>-68.494082802192864</v>
+        <v>-48.778912082888908</v>
       </c>
       <c r="AG4" s="1">
-        <v>-75.024304225032282</v>
+        <v>-68.295585555431586</v>
       </c>
       <c r="AH4" s="1">
-        <v>-72.758496447901251</v>
+        <v>-65.440036664105577</v>
       </c>
       <c r="AI4" s="1">
-        <v>-67.299667463272755</v>
+        <v>-58.161176882978843</v>
       </c>
       <c r="AJ4" s="1">
-        <v>-62.259798386478707</v>
+        <v>-54.94955109350996</v>
       </c>
       <c r="AK4" s="1">
-        <v>-34.007314771118459</v>
+        <v>14.823694029850749</v>
       </c>
       <c r="AL4" s="1">
-        <v>-33.977066106198251</v>
+        <v>20.981956234270349</v>
       </c>
       <c r="AM4" s="1">
-        <v>-42.469150775722987</v>
+        <v>19.413149223285739</v>
       </c>
       <c r="AN4" s="1">
-        <v>-78.549247725682307</v>
+        <v>34.549299497753111</v>
       </c>
       <c r="AO4" s="1">
-        <v>-32.396750781310537</v>
+        <v>36.75578337784053</v>
       </c>
       <c r="AP4" s="1">
-        <v>-39.339255968906159</v>
+        <v>5.1719797697782379</v>
       </c>
       <c r="AQ4" s="1">
-        <v>-35.115614540693016</v>
+        <v>4.1918934033603152</v>
       </c>
       <c r="AR4" s="1">
-        <v>-31.4884789959189</v>
+        <v>-7.6844008195517732</v>
       </c>
       <c r="AS4" s="1">
-        <v>-41.758155170048028</v>
+        <v>-14.619062961502109</v>
       </c>
       <c r="AT4" s="1">
-        <v>-46.688602028565533</v>
+        <v>-14.175552873005209</v>
       </c>
       <c r="AU4" s="1">
-        <v>-60.530883227300379</v>
+        <v>-63.033919597989943</v>
       </c>
       <c r="AV4" s="1">
-        <v>-58.821809679657257</v>
+        <v>-69.220110847189218</v>
       </c>
       <c r="AW4" s="1">
-        <v>-53.146323787007589</v>
+        <v>-66.993327773144287</v>
       </c>
       <c r="AX4" s="1">
-        <v>-42.715812358308114</v>
+        <v>-70.86499123319696</v>
+      </c>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1">
+        <v>-8.1388479354224899</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>-18.830667441168551</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>-31.708054460916159</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>-49.660268387973488</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>44.029311590463408</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>51.546826389090803</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>32.197631527858682</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1">
-        <v>-43.19137803027553</v>
+        <v>-55.646703573225963</v>
       </c>
       <c r="C5" s="1">
-        <v>-38.753806735842993</v>
+        <v>-58.89736344515498</v>
       </c>
       <c r="D5" s="1">
-        <v>-47.245255233612298</v>
+        <v>-67.916157105884352</v>
       </c>
       <c r="E5" s="1">
-        <v>-68.635445579883807</v>
+        <v>-101.06446764937201</v>
       </c>
       <c r="F5" s="1">
-        <v>-26.121249764111312</v>
+        <v>-36.885364559038777</v>
       </c>
       <c r="G5" s="1">
-        <v>-7.8157284812182901</v>
+        <v>-49.918794833945611</v>
       </c>
       <c r="H5" s="1">
-        <v>-8.609746023304476</v>
+        <v>-48.685088655453541</v>
       </c>
       <c r="I5" s="1">
-        <v>61.0683039401709</v>
+        <v>25.191298615688869</v>
       </c>
       <c r="J5" s="1">
-        <v>77.325632153803028</v>
+        <v>32.086687438190552</v>
       </c>
       <c r="K5" s="1">
-        <v>86.394358897340524</v>
+        <v>37.529663630755827</v>
       </c>
       <c r="L5" s="1">
-        <v>255.65609100747619</v>
+        <v>197.74752059169609</v>
       </c>
       <c r="M5" s="1">
-        <v>161.22628638445079</v>
+        <v>189.55010769342459</v>
       </c>
       <c r="N5" s="1">
-        <v>71.328306928283112</v>
+        <v>94.052199614704563</v>
       </c>
       <c r="O5" s="1">
-        <v>29.79373194237737</v>
+        <v>34.261846859843651</v>
       </c>
       <c r="P5" s="1">
-        <v>2.1877617281900821</v>
+        <v>-3.3905838280580198</v>
       </c>
       <c r="Q5" s="1">
-        <v>-6.1418615867362654</v>
+        <v>-2.6028933711005129</v>
       </c>
       <c r="R5" s="1">
-        <v>-9.8190685677312075</v>
+        <v>-2.327635874783931</v>
       </c>
       <c r="S5" s="1">
-        <v>-16.283753635642519</v>
+        <v>9.5136670216542409</v>
       </c>
       <c r="T5" s="1">
-        <v>15.026247479546671</v>
+        <v>40.064031523211419</v>
       </c>
       <c r="U5" s="1">
-        <v>11.99311835048683</v>
+        <v>-12.75218880852684</v>
       </c>
       <c r="V5" s="1">
-        <v>-0.1252566581558705</v>
+        <v>-24.489722629965311</v>
       </c>
       <c r="W5" s="1">
-        <v>5.962449978488543</v>
+        <v>-11.900659254855681</v>
       </c>
       <c r="X5" s="1">
-        <v>-53.561746333345752</v>
+        <v>-52.593436733432483</v>
       </c>
       <c r="Y5" s="1">
-        <v>-53.755423261017462</v>
+        <v>-31.061032863849771</v>
       </c>
       <c r="Z5" s="1">
-        <v>-73.172511119623735</v>
+        <v>-65.024815938654058</v>
       </c>
       <c r="AA5" s="1">
-        <v>-44.418148785618669</v>
+        <v>-15.837979875664921</v>
       </c>
       <c r="AB5" s="1">
-        <v>-2.728730504542316</v>
+        <v>-6.0411463907717948</v>
       </c>
       <c r="AC5" s="1">
-        <v>3.7729670827331132</v>
+        <v>-1.7721871442727419</v>
       </c>
       <c r="AD5" s="1">
-        <v>-35.939838620412857</v>
+        <v>-26.272189349112431</v>
       </c>
       <c r="AE5" s="1">
-        <v>-47.179945500267237</v>
+        <v>-43.458454810495631</v>
       </c>
       <c r="AF5" s="1">
-        <v>-54.114095407928531</v>
+        <v>-53.411008874612079</v>
       </c>
       <c r="AG5" s="1">
-        <v>-66.022811104317299</v>
+        <v>-85.201564141267028</v>
       </c>
       <c r="AH5" s="1">
-        <v>-64.239792780622423</v>
+        <v>-82.905688931691543</v>
       </c>
       <c r="AI5" s="1">
-        <v>-62.929560360558632</v>
+        <v>-76.398535426164472</v>
       </c>
       <c r="AJ5" s="1">
-        <v>-58.075753836255103</v>
+        <v>-64.648779400999373</v>
       </c>
       <c r="AK5" s="1">
-        <v>-19.414430462880979</v>
+        <v>38.41899203472736</v>
       </c>
       <c r="AL5" s="1">
-        <v>-34.418585137810553</v>
+        <v>41.549197909428713</v>
       </c>
       <c r="AM5" s="1">
-        <v>-46.972659066948673</v>
+        <v>31.78776163178242</v>
       </c>
       <c r="AN5" s="1">
-        <v>-55.072244248380613</v>
+        <v>81.136896636214075</v>
       </c>
       <c r="AO5" s="1">
-        <v>-51.168085069454477</v>
+        <v>56.137983763970389</v>
       </c>
       <c r="AP5" s="1">
-        <v>-30.340446310990121</v>
+        <v>50.664536277144308</v>
       </c>
       <c r="AQ5" s="1">
-        <v>-27.459965312492841</v>
+        <v>41.833851978259943</v>
       </c>
       <c r="AR5" s="1">
-        <v>46.310707399282379</v>
+        <v>21.112443000373759</v>
       </c>
       <c r="AS5" s="1">
-        <v>63.187532088801731</v>
+        <v>18.84887987746977</v>
       </c>
       <c r="AT5" s="1">
-        <v>28.434619739604759</v>
+        <v>13.682740171903159</v>
       </c>
       <c r="AU5" s="1">
-        <v>29.795677423325252</v>
+        <v>79.523522316043426</v>
       </c>
       <c r="AV5" s="1">
-        <v>22.31763315079203</v>
+        <v>74.742343934040051</v>
       </c>
       <c r="AW5" s="1">
-        <v>31.758053520676441</v>
+        <v>78.136580746108862</v>
       </c>
       <c r="AX5" s="1">
-        <v>31.517757623050141</v>
+        <v>70.337022017549884</v>
+      </c>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1">
+        <v>6.6441756794599183</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>-3.6247361543873802</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>-0.41388876459796597</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>-3.811490799849794</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>20.112839280268389</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>8.5118801873496253</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>17.626315850424429</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
-        <v>-14.212884386250151</v>
+        <v>-15.26533477816273</v>
       </c>
       <c r="C6" s="1">
-        <v>-21.917251447302981</v>
+        <v>-26.528149798483</v>
       </c>
       <c r="D6" s="1">
-        <v>-24.356608438295371</v>
+        <v>-22.309084328628291</v>
       </c>
       <c r="E6" s="1">
-        <v>-31.816193439685339</v>
+        <v>-49.404761904761898</v>
       </c>
       <c r="F6" s="1">
-        <v>-29.89125884794797</v>
+        <v>-36.807101326102497</v>
       </c>
       <c r="G6" s="1">
-        <v>-18.272108825358568</v>
+        <v>-21.841047138335181</v>
       </c>
       <c r="H6" s="1">
-        <v>-12.988897980014389</v>
+        <v>-12.157564124934559</v>
       </c>
       <c r="I6" s="1">
-        <v>-15.58026065337687</v>
+        <v>-3.8908589440504389</v>
       </c>
       <c r="J6" s="1">
-        <v>-8.5965725471068879</v>
+        <v>1.812743946942533</v>
       </c>
       <c r="K6" s="1">
-        <v>-9.5808268536421526</v>
+        <v>6.509519297036527</v>
       </c>
       <c r="L6" s="1">
-        <v>8.8547815820545606E-2</v>
+        <v>39.457678661936143</v>
       </c>
       <c r="M6" s="1">
-        <v>-12.49692952981253</v>
+        <v>16.89320388349514</v>
       </c>
       <c r="N6" s="1">
-        <v>-0.71709191382808357</v>
+        <v>-2.765416401780044</v>
       </c>
       <c r="O6" s="1">
-        <v>18.127907738680289</v>
+        <v>-6.9573283858998147</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1338,25 +1884,25 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1">
-        <v>-6.3562286833794186</v>
+        <v>-6.1000929349652973</v>
       </c>
       <c r="X6" s="1">
-        <v>-13.07155493090133</v>
+        <v>-12.188497876683019</v>
       </c>
       <c r="Y6" s="1">
-        <v>-20.371845000850911</v>
+        <v>-15.633195060315661</v>
       </c>
       <c r="Z6" s="1">
-        <v>-26.86255386048677</v>
+        <v>-12.862196765498661</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.997188632140929</v>
+        <v>43.700261030113957</v>
       </c>
       <c r="AB6" s="1">
-        <v>2.3529517703418259</v>
+        <v>31.481394142338338</v>
       </c>
       <c r="AC6" s="1">
-        <v>3.9403011084625201</v>
+        <v>20.643069440691711</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -1366,245 +1912,371 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1">
-        <v>-14.158780661432329</v>
+        <v>-12.37677840512761</v>
       </c>
       <c r="AL6" s="1">
-        <v>-12.628221598107579</v>
+        <v>-11.686634837702311</v>
       </c>
       <c r="AM6" s="1">
-        <v>-7.4495633252267188</v>
+        <v>-10.82408895509127</v>
       </c>
       <c r="AN6" s="1">
-        <v>-5.9458514402305633</v>
+        <v>-28.141459744168561</v>
       </c>
       <c r="AO6" s="1">
-        <v>-14.45092077485827</v>
+        <v>-36.149312377210222</v>
       </c>
       <c r="AP6" s="1">
-        <v>-19.805733238569061</v>
+        <v>-48.988631330281997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>-19.24896111263412</v>
+        <v>-60.891520634825213</v>
       </c>
       <c r="AR6" s="1">
-        <v>32.482572309137367</v>
+        <v>8.9191636547089814</v>
       </c>
       <c r="AS6" s="1">
-        <v>32.592492726680447</v>
+        <v>8.6338771106428496</v>
       </c>
       <c r="AT6" s="1">
-        <v>23.74681615236338</v>
+        <v>3.801314316059242</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.4044850114305696</v>
+        <v>14.55261394101877</v>
       </c>
       <c r="AV6" s="1">
-        <v>21.06302762405069</v>
+        <v>44.223962713765083</v>
       </c>
       <c r="AW6" s="1">
-        <v>12.03755891396588</v>
+        <v>39.104889251373628</v>
       </c>
       <c r="AX6" s="1">
-        <v>7.1923024651890284</v>
+        <v>30.37058246073299</v>
+      </c>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1">
+        <v>-52.721644540361432</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>-55.968798211643197</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>-59.23713049456105</v>
+      </c>
+      <c r="CR6" s="1">
+        <v>-94.442501398992718</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>-92.10512885940291</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>-86.840180421796902</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>-86.744409384003291</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1">
-        <v>72.164585172650575</v>
+        <v>10.467373477563379</v>
       </c>
       <c r="C7" s="1">
-        <v>76.784882834986973</v>
+        <v>16.902888795953629</v>
       </c>
       <c r="D7" s="1">
-        <v>86.590443363347404</v>
+        <v>19.715359977718968</v>
       </c>
       <c r="E7" s="1">
-        <v>207.95223475937959</v>
+        <v>60.364570522806147</v>
       </c>
       <c r="F7" s="1">
-        <v>143.55963854352709</v>
+        <v>33.434050027490308</v>
       </c>
       <c r="G7" s="1">
-        <v>145.73281567293591</v>
+        <v>40.384311494579798</v>
       </c>
       <c r="H7" s="1">
-        <v>101.09959430043131</v>
+        <v>32.630568469610729</v>
       </c>
       <c r="I7" s="1">
-        <v>-13.967465224357451</v>
+        <v>-15.51291969673526</v>
       </c>
       <c r="J7" s="1">
-        <v>-18.96357816420106</v>
+        <v>-21.16514062670996</v>
       </c>
       <c r="K7" s="1">
-        <v>-15.15511403940811</v>
+        <v>-2.1404380221268959</v>
       </c>
       <c r="L7" s="1">
-        <v>0.58488164502139861</v>
+        <v>40.882953069931382</v>
       </c>
       <c r="M7" s="1">
-        <v>2.718978325271693</v>
+        <v>24.471685131359099</v>
       </c>
       <c r="N7" s="1">
-        <v>-16.16273252036769</v>
+        <v>4.5674808783617067</v>
       </c>
       <c r="O7" s="1">
-        <v>17.248205422459911</v>
+        <v>63.930195403711451</v>
       </c>
       <c r="P7" s="1">
-        <v>-61.926679249351423</v>
+        <v>-63.393163955401199</v>
       </c>
       <c r="Q7" s="1">
-        <v>-58.924921557634249</v>
+        <v>-62.975186001080687</v>
       </c>
       <c r="R7" s="1">
-        <v>-67.728585616531987</v>
+        <v>-73.009053245358288</v>
       </c>
       <c r="S7" s="1">
-        <v>-82.680022074931642</v>
+        <v>-102.512321192451</v>
       </c>
       <c r="T7" s="1">
-        <v>-79.269951923076917</v>
+        <v>-90.065219042658256</v>
       </c>
       <c r="U7" s="1">
-        <v>-77.05426220217862</v>
+        <v>-93.517370140694808</v>
       </c>
       <c r="V7" s="1">
-        <v>-78.71369577348959</v>
+        <v>-96.705957451491841</v>
       </c>
       <c r="W7" s="1">
-        <v>-16.526325346845709</v>
+        <v>-17.477768159282292</v>
       </c>
       <c r="X7" s="1">
-        <v>-9.2102044221708113</v>
+        <v>-21.914686515888921</v>
       </c>
       <c r="Y7" s="1">
-        <v>-19.109594449880191</v>
+        <v>-31.92839707078927</v>
       </c>
       <c r="Z7" s="1">
-        <v>-46.210644285966538</v>
+        <v>-74.059183209486548</v>
       </c>
       <c r="AA7" s="1">
-        <v>-52.53822939552547</v>
+        <v>-80.844243903641797</v>
       </c>
       <c r="AB7" s="1">
-        <v>-49.173710257423771</v>
+        <v>-74.102625873283543</v>
       </c>
       <c r="AC7" s="1">
-        <v>-38.545822884002483</v>
+        <v>-62.527631281221183</v>
       </c>
       <c r="AD7" s="1">
-        <v>-31.852420024488769</v>
+        <v>-23.728191338026232</v>
       </c>
       <c r="AE7" s="1">
-        <v>-56.87295975007325</v>
+        <v>-54.344130610899803</v>
       </c>
       <c r="AF7" s="1">
-        <v>-61.055966175612973</v>
+        <v>-61.503038687682199</v>
       </c>
       <c r="AG7" s="1">
-        <v>-70.584637558850176</v>
+        <v>-92.135929104737983</v>
       </c>
       <c r="AH7" s="1">
-        <v>-65.048454475502453</v>
+        <v>-88.937119833491934</v>
       </c>
       <c r="AI7" s="1">
-        <v>-56.83421415218104</v>
+        <v>-74.771901194273426</v>
       </c>
       <c r="AJ7" s="1">
-        <v>-27.578181542204799</v>
+        <v>-34.243551223801838</v>
       </c>
       <c r="AK7" s="1">
-        <v>39.3921138991672</v>
+        <v>36.025945072456182</v>
       </c>
       <c r="AL7" s="1">
-        <v>53.349576658341981</v>
+        <v>39.961659146192588</v>
       </c>
       <c r="AM7" s="1">
-        <v>74.047952041052426</v>
+        <v>42.219902050481672</v>
       </c>
       <c r="AN7" s="1">
-        <v>131.36503880259551</v>
+        <v>96.737145565734977</v>
       </c>
       <c r="AO7" s="1">
-        <v>90.340834579639505</v>
+        <v>45.884886309719327</v>
       </c>
       <c r="AP7" s="1">
-        <v>58.145865353244318</v>
+        <v>39.992381141669362</v>
       </c>
       <c r="AQ7" s="1">
-        <v>42.504373966010597</v>
+        <v>34.81742723807487</v>
       </c>
       <c r="AR7" s="1">
-        <v>-1.1194569749532739</v>
+        <v>-6.4177662443084246E-2</v>
       </c>
       <c r="AS7" s="1">
-        <v>5.9411887369343379</v>
+        <v>-3.078517191882141</v>
       </c>
       <c r="AT7" s="1">
-        <v>-7.437282882941906</v>
+        <v>10.688925937741461</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.95016559502036</v>
+        <v>63.672275805458654</v>
       </c>
       <c r="AV7" s="1">
-        <v>10.021903948597609</v>
+        <v>53.191991558369438</v>
       </c>
       <c r="AW7" s="1">
-        <v>5.485985412376853</v>
+        <v>44.630090005080937</v>
       </c>
       <c r="AX7" s="1">
-        <v>12.066000663506379</v>
+        <v>42.359953879041903</v>
+      </c>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1">
+        <v>3.1201128453589351</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>-16.930144412992369</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>-19.491201224177502</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>-48.012684989429182</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>-48.491167236774281</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>-47.278253126330867</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>-64.498176933410093</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1">
-        <v>-8.6886974952835363</v>
+        <v>-23.241633082179771</v>
       </c>
       <c r="C8" s="1">
-        <v>-13.9716076586566</v>
+        <v>-27.67567253331784</v>
       </c>
       <c r="D8" s="1">
-        <v>-24.927130551664849</v>
+        <v>-40.091653027823227</v>
       </c>
       <c r="E8" s="1">
-        <v>-55.862798885803691</v>
+        <v>-78.012366999052972</v>
       </c>
       <c r="F8" s="1">
-        <v>-30.087333370031001</v>
+        <v>-49.303322615219727</v>
       </c>
       <c r="G8" s="1">
-        <v>-17.84813804484466</v>
+        <v>-38.524657421842939</v>
       </c>
       <c r="H8" s="1">
-        <v>-12.52347020451667</v>
+        <v>-44.763903462749219</v>
       </c>
       <c r="I8" s="1">
-        <v>19.30472727272727</v>
+        <v>-11.928761303944141</v>
       </c>
       <c r="J8" s="1">
-        <v>20.480866985083161</v>
+        <v>-14.380161144729369</v>
       </c>
       <c r="K8" s="1">
-        <v>26.2551782386615</v>
+        <v>-16.18661133825594</v>
       </c>
       <c r="L8" s="1">
-        <v>17.263368862166342</v>
+        <v>-4.4066985645933077</v>
       </c>
       <c r="M8" s="1">
-        <v>38.76196055457919</v>
+        <v>15.430728241563051</v>
       </c>
       <c r="N8" s="1">
-        <v>15.909471350426291</v>
+        <v>8.7287746672785751</v>
       </c>
       <c r="O8" s="1">
-        <v>33.843367531155202</v>
+        <v>13.60895328629158</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1614,25 +2286,25 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <v>-43.861038095838033</v>
+        <v>-9.1731870337842469</v>
       </c>
       <c r="X8" s="1">
-        <v>-65.19463210436632</v>
+        <v>-24.297741101942151</v>
       </c>
       <c r="Y8" s="1">
-        <v>-72.992809714099735</v>
+        <v>-32.270343427508038</v>
       </c>
       <c r="Z8" s="1">
-        <v>-85.505530973451329</v>
+        <v>-70.958751393534001</v>
       </c>
       <c r="AA8" s="1">
-        <v>-55.943464120760488</v>
+        <v>-16.601303420035769</v>
       </c>
       <c r="AB8" s="1">
-        <v>-36.21884180876517</v>
+        <v>3.2944277108433822</v>
       </c>
       <c r="AC8" s="1">
-        <v>-31.622762778743791</v>
+        <v>-2.4207421971000298</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -1642,506 +2314,758 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
-        <v>-10.61842318150944</v>
+        <v>10.50084012887114</v>
       </c>
       <c r="AL8" s="1">
-        <v>-14.29974879815207</v>
+        <v>8.875739644970416</v>
       </c>
       <c r="AM8" s="1">
-        <v>-34.437910923222468</v>
+        <v>-4.1974155379106346</v>
       </c>
       <c r="AN8" s="1">
-        <v>-61.131130716517781</v>
+        <v>-31.25060544415382</v>
       </c>
       <c r="AO8" s="1">
-        <v>-41.195657068478738</v>
+        <v>10.576305994095749</v>
       </c>
       <c r="AP8" s="1">
-        <v>-33.142343556903711</v>
+        <v>19.935281947907281</v>
       </c>
       <c r="AQ8" s="1">
-        <v>-30.675307188972671</v>
+        <v>21.68614357262102</v>
       </c>
       <c r="AR8" s="1">
-        <v>-52.150673388870793</v>
+        <v>-30.018959533474501</v>
       </c>
       <c r="AS8" s="1">
-        <v>-54.985987409406022</v>
+        <v>-38.314348192112668</v>
       </c>
       <c r="AT8" s="1">
-        <v>-54.373398572273068</v>
+        <v>-47.817707791982833</v>
       </c>
       <c r="AU8" s="1">
-        <v>-64.375802718921676</v>
+        <v>-88.282778864970638</v>
       </c>
       <c r="AV8" s="1">
-        <v>-60.8115837245617</v>
+        <v>-92.573908962928186</v>
       </c>
       <c r="AW8" s="1">
-        <v>-56.454200124915531</v>
+        <v>-95.032991202346025</v>
       </c>
       <c r="AX8" s="1">
-        <v>-55.085894951047962</v>
+        <v>-102.8591352859135</v>
+      </c>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1">
+        <v>-78.55280312907432</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>-85.48012363874561</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>-91.669009794273407</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>-124.5044845532056</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>-116.96144547652371</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>-111.135788585887</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>-104.7497637206849</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1">
-        <v>-8.8237720216233484</v>
+        <v>-5.5063216353538964</v>
       </c>
       <c r="C9" s="1">
-        <v>-33.954551581595979</v>
+        <v>-14.32169845268082</v>
       </c>
       <c r="D9" s="1">
-        <v>-33.905058714067131</v>
+        <v>-10.7779605815398</v>
       </c>
       <c r="E9" s="1">
-        <v>-71.370411126426092</v>
+        <v>-70.879763511342446</v>
       </c>
       <c r="F9" s="1">
-        <v>-55.973171455493294</v>
+        <v>-48.889486662183373</v>
       </c>
       <c r="G9" s="1">
-        <v>-19.883515426298668</v>
+        <v>11.25183377215741</v>
       </c>
       <c r="H9" s="1">
-        <v>15.71876365838882</v>
+        <v>39.759816067322937</v>
       </c>
       <c r="I9" s="1">
-        <v>15.748926098009999</v>
+        <v>18.376312677666661</v>
       </c>
       <c r="J9" s="1">
-        <v>-4.8034867949831517</v>
+        <v>0.55165739172514816</v>
       </c>
       <c r="K9" s="1">
-        <v>-7.4675521961169027</v>
+        <v>-5.4969204927211637</v>
       </c>
       <c r="L9" s="1">
-        <v>-39.951439334349217</v>
+        <v>-9.5136265355097738</v>
       </c>
       <c r="M9" s="1">
-        <v>-38.60861400555293</v>
+        <v>-4.3905850782911493</v>
       </c>
       <c r="N9" s="1">
-        <v>-48.088920165802172</v>
+        <v>-28.701815710263119</v>
       </c>
       <c r="O9" s="1">
-        <v>-40.823168479815287</v>
+        <v>-24.72057494828859</v>
       </c>
       <c r="P9" s="1">
-        <v>-19.8701953937063</v>
+        <v>-33.388141721796607</v>
       </c>
       <c r="Q9" s="1">
-        <v>-50.833143198132589</v>
+        <v>-60.431991672449669</v>
       </c>
       <c r="R9" s="1">
-        <v>-60.436844303579761</v>
+        <v>-71.008707713647226</v>
       </c>
       <c r="S9" s="1">
-        <v>-65.61973053329065</v>
+        <v>-84.257362496971282</v>
       </c>
       <c r="T9" s="1">
-        <v>-28.205427246759591</v>
+        <v>-58.651661075641158</v>
       </c>
       <c r="U9" s="1">
-        <v>28.806438837985329</v>
+        <v>-2.0106865202967898</v>
       </c>
       <c r="V9" s="1">
-        <v>54.449692990322333</v>
+        <v>8.1898477506272247</v>
       </c>
       <c r="W9" s="1">
-        <v>-14.619468222114889</v>
+        <v>-9.8208780036204626</v>
       </c>
       <c r="X9" s="1">
-        <v>-38.479397244912839</v>
+        <v>-26.827771865022228</v>
       </c>
       <c r="Y9" s="1">
-        <v>-51.896422811206207</v>
+        <v>-43.056735538109102</v>
       </c>
       <c r="Z9" s="1">
-        <v>-83.892490303735883</v>
+        <v>-94.213209038624029</v>
       </c>
       <c r="AA9" s="1">
-        <v>-55.559436595955589</v>
+        <v>-57.421398976358759</v>
       </c>
       <c r="AB9" s="1">
-        <v>-51.353632563756733</v>
+        <v>-56.679024390243903</v>
       </c>
       <c r="AC9" s="1">
-        <v>-27.0930317696657</v>
+        <v>-39.261537022530383</v>
       </c>
       <c r="AD9" s="1">
-        <v>-26.84801612809682</v>
+        <v>-26.22780375482067</v>
       </c>
       <c r="AE9" s="1">
-        <v>-30.241968511896051</v>
+        <v>-31.645549881096251</v>
       </c>
       <c r="AF9" s="1">
-        <v>-28.599312895249358</v>
+        <v>-31.84137077397277</v>
       </c>
       <c r="AG9" s="1">
-        <v>-41.134379799947553</v>
+        <v>-55.819327000034797</v>
       </c>
       <c r="AH9" s="1">
-        <v>-24.44997285865896</v>
+        <v>-41.046048268188272</v>
       </c>
       <c r="AI9" s="1">
-        <v>-21.76466724906351</v>
+        <v>-20.400815217391301</v>
       </c>
       <c r="AJ9" s="1">
-        <v>-17.5527116941035</v>
+        <v>-12.07103833452542</v>
       </c>
       <c r="AK9" s="1">
-        <v>-3.879233379670302</v>
+        <v>13.37542644737513</v>
       </c>
       <c r="AL9" s="1">
-        <v>-2.0834786652714792</v>
+        <v>19.11078589199473</v>
       </c>
       <c r="AM9" s="1">
-        <v>-7.6760105509889884</v>
+        <v>15.881740165682819</v>
       </c>
       <c r="AN9" s="1">
-        <v>-14.587608631921009</v>
+        <v>39.367451791552682</v>
       </c>
       <c r="AO9" s="1">
-        <v>-11.253442419990041</v>
+        <v>18.172292934882851</v>
       </c>
       <c r="AP9" s="1">
-        <v>-22.71974694598693</v>
+        <v>8.7626140725926955</v>
       </c>
       <c r="AQ9" s="1">
-        <v>-28.765422933040131</v>
+        <v>-2.0727210256533151</v>
       </c>
       <c r="AR9" s="1">
-        <v>-63.257390923323527</v>
+        <v>2.1511734703249532</v>
       </c>
       <c r="AS9" s="1">
-        <v>-66.294296124595277</v>
+        <v>1.972421498829606</v>
       </c>
       <c r="AT9" s="1">
-        <v>-65.431353942933256</v>
+        <v>1.34696942545803</v>
       </c>
       <c r="AU9" s="1">
-        <v>-73.268434691387796</v>
+        <v>27.693239967681119</v>
       </c>
       <c r="AV9" s="1">
-        <v>-69.131914693853417</v>
+        <v>24.233550947260611</v>
       </c>
       <c r="AW9" s="1">
-        <v>-68.1337207833528</v>
+        <v>27.275762688035989</v>
       </c>
       <c r="AX9" s="1">
-        <v>-64.975339176900277</v>
+        <v>26.620148729733181</v>
+      </c>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1">
+        <v>32.968900645225077</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>26.58367492052869</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>23.716614637530341</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>68.93535819352789</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>49.574264125408817</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>39.642011055540927</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>77.54148340663734</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1">
-        <v>-38.035422014340938</v>
+        <v>9.6785109983079423</v>
       </c>
       <c r="C10" s="1">
-        <v>-48.052965454092742</v>
+        <v>-3.6941150875666282</v>
       </c>
       <c r="D10" s="1">
-        <v>-52.09948100774001</v>
+        <v>-3.181214471657015</v>
       </c>
       <c r="E10" s="1">
-        <v>-62.853573124551083</v>
+        <v>-10.52156921689463</v>
       </c>
       <c r="F10" s="1">
-        <v>-55.825574282731779</v>
+        <v>-17.13348320068048</v>
       </c>
       <c r="G10" s="1">
-        <v>-49.236120501642063</v>
+        <v>-14.16220913681245</v>
       </c>
       <c r="H10" s="1">
-        <v>-35.19922298763845</v>
+        <v>0.37340069188951491</v>
       </c>
       <c r="I10" s="1">
-        <v>-14.32719069419854</v>
+        <v>-20.97456783899597</v>
       </c>
       <c r="J10" s="1">
-        <v>-16.58659489485375</v>
+        <v>-21.186831620884892</v>
       </c>
       <c r="K10" s="1">
-        <v>-17.09081959143489</v>
+        <v>-44.960198124889438</v>
       </c>
       <c r="L10" s="1">
-        <v>-64.707700550186487</v>
+        <v>-88.802818200261896</v>
       </c>
       <c r="M10" s="1">
-        <v>-60.804794041051792</v>
+        <v>-71.098713776538048</v>
       </c>
       <c r="N10" s="1">
-        <v>-54.871685494715557</v>
+        <v>-62.785846420277871</v>
       </c>
       <c r="O10" s="1">
-        <v>-48.193562273145062</v>
+        <v>-47.536131942648623</v>
       </c>
       <c r="P10" s="1">
-        <v>23.75151587162382</v>
+        <v>-4.565940155153311</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.4766340983109831</v>
+        <v>-17.140824473340981</v>
       </c>
       <c r="R10" s="1">
-        <v>7.9115883395672766</v>
+        <v>-22.736559540675572</v>
       </c>
       <c r="S10" s="1">
-        <v>21.609150758355501</v>
+        <v>-40.986142654948821</v>
       </c>
       <c r="T10" s="1">
-        <v>-4.5468214350153344</v>
+        <v>-39.167882422867031</v>
       </c>
       <c r="U10" s="1">
-        <v>-16.686822622035439</v>
+        <v>-37.003938701883293</v>
       </c>
       <c r="V10" s="1">
-        <v>80.542630856348211</v>
+        <v>34.756299342882798</v>
       </c>
       <c r="W10" s="1">
-        <v>47.368378931193767</v>
+        <v>29.0050379900553</v>
       </c>
       <c r="X10" s="1">
-        <v>64.544158705597425</v>
+        <v>34.904841993449587</v>
       </c>
       <c r="Y10" s="1">
-        <v>95.117632777039233</v>
+        <v>45.40821033210333</v>
       </c>
       <c r="Z10" s="1">
-        <v>40.170359989489363</v>
+        <v>-29.05738356382134</v>
       </c>
       <c r="AA10" s="1">
-        <v>-26.010406862820719</v>
+        <v>-45.256180478507019</v>
       </c>
       <c r="AB10" s="1">
-        <v>-18.528686364440691</v>
+        <v>-37.042948774792357</v>
       </c>
       <c r="AC10" s="1">
-        <v>-22.474101575813751</v>
+        <v>-42.349270887273619</v>
       </c>
       <c r="AD10" s="1">
-        <v>-4.1938900946497233</v>
+        <v>12.38306828811975</v>
       </c>
       <c r="AE10" s="1">
-        <v>-6.253226424613116</v>
+        <v>18.83758289739259</v>
       </c>
       <c r="AF10" s="1">
-        <v>-8.7798691968234941</v>
+        <v>25.087180675433029</v>
       </c>
       <c r="AG10" s="1">
-        <v>-20.890454836643169</v>
+        <v>33.653541644674327</v>
       </c>
       <c r="AH10" s="1">
-        <v>-27.05652202706796</v>
+        <v>1.6730975000810651</v>
       </c>
       <c r="AI10" s="1">
-        <v>-26.53361175531451</v>
+        <v>-2.5160077951002129</v>
       </c>
       <c r="AJ10" s="1">
-        <v>-19.680661406318439</v>
+        <v>2.5951557093425741</v>
       </c>
       <c r="AK10" s="1">
-        <v>-12.618584815996281</v>
+        <v>-25.389418655307601</v>
       </c>
       <c r="AL10" s="1">
-        <v>-17.665737009743331</v>
+        <v>-32.207607536437962</v>
       </c>
       <c r="AM10" s="1">
-        <v>-17.12548576401689</v>
+        <v>-24.679720798072768</v>
       </c>
       <c r="AN10" s="1">
-        <v>-22.047848801651249</v>
+        <v>-50.166464599811391</v>
       </c>
       <c r="AO10" s="1">
-        <v>-21.400614570758751</v>
+        <v>-45.859899284944042</v>
       </c>
       <c r="AP10" s="1">
-        <v>-11.393213805276099</v>
+        <v>-38.998421265190728</v>
       </c>
       <c r="AQ10" s="1">
-        <v>-4.6930851879876752</v>
+        <v>-31.742384066937721</v>
       </c>
       <c r="AR10" s="1">
-        <v>-8.5491494108025439</v>
+        <v>4.8904037747556552</v>
       </c>
       <c r="AS10" s="1">
-        <v>-11.70061211779559</v>
+        <v>4.0605591713690004</v>
       </c>
       <c r="AT10" s="1">
-        <v>-11.682574180012249</v>
+        <v>2.249150022760892</v>
       </c>
       <c r="AU10" s="1">
-        <v>-33.205872906648906</v>
+        <v>-6.7994505494505377</v>
       </c>
       <c r="AV10" s="1">
-        <v>-35.495461513158908</v>
+        <v>-17.63507511682694</v>
       </c>
       <c r="AW10" s="1">
-        <v>-32.002813162946339</v>
+        <v>-27.546296296296291</v>
       </c>
       <c r="AX10" s="1">
-        <v>-20.94013679598859</v>
+        <v>-30.97830958142869</v>
+      </c>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1">
+        <v>-8.2982238928278793</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>-5.899873983274138</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>-2.2747575753209621</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>6.0980936632242324</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>0.11916175866319501</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>-3.6067424000785069</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>18.626780803828051</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1">
-        <v>-1.7627260302275489</v>
+        <v>-5.1860000000000017</v>
       </c>
       <c r="C11" s="1">
-        <v>-2.4050952438997562</v>
+        <v>-4.4379</v>
       </c>
       <c r="D11" s="1">
-        <v>-2.3790531417831491</v>
+        <v>-3.6075999999999988</v>
       </c>
       <c r="E11" s="1">
-        <v>-2.3347377993298051</v>
+        <v>-4.9370833333333337</v>
       </c>
       <c r="F11" s="1">
-        <v>-2.7290858020702569</v>
+        <v>-4.712416666666666</v>
       </c>
       <c r="G11" s="1">
-        <v>-0.27832451270945091</v>
+        <v>-3.9941249999999981</v>
       </c>
       <c r="H11" s="1">
-        <v>1.307452290332656</v>
+        <v>-3.708333333333333</v>
       </c>
       <c r="I11" s="1">
-        <v>2.3787575563325571</v>
+        <v>0.80056250000000029</v>
       </c>
       <c r="J11" s="1">
-        <v>1.398779797979798</v>
+        <v>-0.17551249999999971</v>
       </c>
       <c r="K11" s="1">
-        <v>1.594316317016317</v>
+        <v>-0.1386750000000001</v>
       </c>
       <c r="L11" s="1">
-        <v>1.6616432109557111</v>
+        <v>2.484458333333333</v>
       </c>
       <c r="M11" s="1">
-        <v>2.7936463918026422</v>
+        <v>5.3694166666666661</v>
       </c>
       <c r="N11" s="1">
-        <v>0.27914464840714848</v>
+        <v>3.415541666666666</v>
       </c>
       <c r="O11" s="1">
-        <v>1.1649409805880391</v>
+        <v>4.2302916666666652</v>
       </c>
       <c r="P11" s="1">
-        <v>-3.5414489623865122</v>
+        <v>-5.1148999999999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>-3.607477777777778</v>
+        <v>-4.2444999999999986</v>
       </c>
       <c r="R11" s="1">
-        <v>-3.4348055555555548</v>
+        <v>-4.0769500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-2.523545673076923</v>
+        <v>-3.5855000000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>-3.2737500000000002</v>
+        <v>-4.7855833333333333</v>
       </c>
       <c r="U11" s="1">
-        <v>-1.965257211538461</v>
+        <v>-5.3800833333333333</v>
       </c>
       <c r="V11" s="1">
-        <v>0.73828867057757819</v>
+        <v>-6.1934999999999976</v>
       </c>
       <c r="W11" s="1">
-        <v>-0.5190749007936506</v>
+        <v>-1.934287500000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-2.8137428075396822</v>
+        <v>-3.0287999999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>-2.7254437003968262</v>
+        <v>-2.2165625000000002</v>
       </c>
       <c r="Z11" s="1">
-        <v>-5.0779242559523814</v>
+        <v>-5.4389583333333338</v>
       </c>
       <c r="AA11" s="1">
-        <v>-6.7655919642857141</v>
+        <v>-6.3373333333333326</v>
       </c>
       <c r="AB11" s="1">
-        <v>-6.8704421721187341</v>
+        <v>-6.8069583333333341</v>
       </c>
       <c r="AC11" s="1">
-        <v>-7.2199184383131527</v>
+        <v>-8.3651666666666671</v>
       </c>
       <c r="AD11" s="1">
-        <v>-8.1013883928571424</v>
+        <v>-4.6690500000000004</v>
       </c>
       <c r="AE11" s="1">
-        <v>-7.4546634424603164</v>
+        <v>-4.8903999999999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>-6.3286515376984136</v>
+        <v>-4.24695</v>
       </c>
       <c r="AG11" s="1">
-        <v>-6.4207127976190472</v>
+        <v>-6.8088333333333333</v>
       </c>
       <c r="AH11" s="1">
-        <v>-8.2354794195804182</v>
+        <v>-9.3040833333333328</v>
       </c>
       <c r="AI11" s="1">
-        <v>-9.1135043859649123</v>
+        <v>-8.1286666666666676</v>
       </c>
       <c r="AJ11" s="1">
-        <v>-9.9600293390287771</v>
+        <v>-7.7480416666666656</v>
       </c>
       <c r="AK11" s="1">
-        <v>-4.5892503359385719</v>
+        <v>3.125883333333332</v>
       </c>
       <c r="AL11" s="1">
-        <v>-4.8251208624708619</v>
+        <v>2.333966666666667</v>
       </c>
       <c r="AM11" s="1">
-        <v>-4.8356510078157138</v>
+        <v>1.8866333333333329</v>
       </c>
       <c r="AN11" s="1">
-        <v>-5.2643591790154289</v>
+        <v>2.5846666666666671</v>
       </c>
       <c r="AO11" s="1">
-        <v>-5.2562782235125987</v>
+        <v>1.5189166666666669</v>
       </c>
       <c r="AP11" s="1">
-        <v>-7.4399353632478622</v>
+        <v>0.93125000000000058</v>
       </c>
       <c r="AQ11" s="1">
-        <v>-8.9401810099622594</v>
+        <v>-0.50274999999999959</v>
       </c>
       <c r="AR11" s="1">
-        <v>-5.9376441746189119</v>
+        <v>1.252242307692307</v>
       </c>
       <c r="AS11" s="1">
-        <v>-4.249854099856166</v>
+        <v>0.44091463414634252</v>
       </c>
       <c r="AT11" s="1">
-        <v>-4.9622967281341426</v>
+        <v>9.6577586206896354E-2</v>
       </c>
       <c r="AU11" s="1">
-        <v>-4.6589588971033979</v>
+        <v>3.49125</v>
       </c>
       <c r="AV11" s="1">
-        <v>-6.5228971797569946</v>
+        <v>4.7644999999999991</v>
       </c>
       <c r="AW11" s="1">
-        <v>-7.525353939503387</v>
+        <v>6.3294999999999986</v>
       </c>
       <c r="AX11" s="1">
-        <v>-8.6235365299191216</v>
+        <v>6.81</v>
+      </c>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1">
+        <v>-2.8838124999999999</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>-3.9068125</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>-3.3939374999999998</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>-4.4002499999999998</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>0.18624999999999969</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>-0.99225000000000008</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>-0.98949999999999982</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AX11">
+  <conditionalFormatting sqref="A1:CU11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0E55D6AD87205348F31B3F11595ED87656CD6549" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BEB7A4-DDD5-9F41-8A6C-3B73D9BF3891}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_5E1534BF87D0531AD3F83C11595ED87656CDFA1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931237D7-E392-4A4A-A64C-D7A29A9A37BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35400" yWindow="3820" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>A1-12h</t>
   </si>
@@ -199,7 +199,7 @@
     <t>A9-3h</t>
   </si>
   <si>
-    <t>Jeudi1 Septembre 6h - 12h</t>
+    <t>Jeudi1 Septembre 17h - 23h</t>
   </si>
   <si>
     <t>A9+3h</t>
@@ -314,6 +314,48 @@
   </si>
   <si>
     <t>A14+12h</t>
+  </si>
+  <si>
+    <t>A15-12h</t>
+  </si>
+  <si>
+    <t>A15-6h</t>
+  </si>
+  <si>
+    <t>A15-3h</t>
+  </si>
+  <si>
+    <t>Dimanche4 Decembre 12h - 18h</t>
+  </si>
+  <si>
+    <t>A15+3h</t>
+  </si>
+  <si>
+    <t>A15+6h</t>
+  </si>
+  <si>
+    <t>A15+12h</t>
+  </si>
+  <si>
+    <t>A16-12h</t>
+  </si>
+  <si>
+    <t>A16-6h</t>
+  </si>
+  <si>
+    <t>A16-3h</t>
+  </si>
+  <si>
+    <t>Lundi19 Decembre 16h - 22h</t>
+  </si>
+  <si>
+    <t>A16+3h</t>
+  </si>
+  <si>
+    <t>A16+6h</t>
+  </si>
+  <si>
+    <t>A16+12h</t>
   </si>
   <si>
     <t>ECHL01</t>
@@ -707,15 +749,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU11"/>
+  <dimension ref="A1:DI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:CU11"/>
+      <selection activeCell="CW18" sqref="CW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1011,10 +1057,52 @@
       <c r="CU1" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="CV1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1">
         <v>-8.5820673740887656</v>
@@ -1198,10 +1286,24 @@
       <c r="CU2" s="1">
         <v>82.36492590385761</v>
       </c>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1">
         <v>-17.789749933523709</v>
@@ -1413,10 +1515,24 @@
       <c r="CU3" s="1">
         <v>-45.200777520791299</v>
       </c>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1">
         <v>-9.2726242206687992</v>
@@ -1614,10 +1730,24 @@
       <c r="CU4" s="1">
         <v>32.197631527858682</v>
       </c>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1">
         <v>-55.646703573225963</v>
@@ -1829,10 +1959,24 @@
       <c r="CU5" s="1">
         <v>17.626315850424429</v>
       </c>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1">
         <v>-15.26533477816273</v>
@@ -2016,10 +2160,24 @@
       <c r="CU6" s="1">
         <v>-86.744409384003291</v>
       </c>
+      <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1"/>
+      <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1"/>
+      <c r="DF6" s="1"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1"/>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1">
         <v>10.467373477563379</v>
@@ -2231,10 +2389,24 @@
       <c r="CU7" s="1">
         <v>-64.498176933410093</v>
       </c>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1">
         <v>-23.241633082179771</v>
@@ -2418,10 +2590,24 @@
       <c r="CU8" s="1">
         <v>-104.7497637206849</v>
       </c>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1">
         <v>-5.5063216353538964</v>
@@ -2633,10 +2819,24 @@
       <c r="CU9" s="1">
         <v>77.54148340663734</v>
       </c>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1">
         <v>9.6785109983079423</v>
@@ -2848,10 +3048,24 @@
       <c r="CU10" s="1">
         <v>18.626780803828051</v>
       </c>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1">
         <v>-5.1860000000000017</v>
@@ -3063,9 +3277,23 @@
       <c r="CU11" s="1">
         <v>-0.98949999999999982</v>
       </c>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1"/>
+      <c r="DI11" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:CU11">
+  <conditionalFormatting sqref="A1:DI11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/plots/alerts_ech.xlsx
+++ b/plots/alerts_ech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/brice_petit_ulb_be/Documents/Ulb/PhD/VdE/VdE_data_analysis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4E3D57AB870053469B592F11595ED87656CCE73F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D11D4334-DA92-314B-9012-951ACD0DA7DE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_667555A28730D766333B3711595ED87656CCB718" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C582A8B-5D83-EC46-BBD3-859DB5FBDF62}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="2040" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,13 +519,15 @@
   <dimension ref="A1:DW15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:127" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,13 +953,6 @@
       <c r="O2" s="1">
         <v>3.5218873766281722</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
       <c r="W2" s="1">
         <v>19.614931321123318</v>
       </c>
@@ -979,13 +974,6 @@
       <c r="AC2" s="1">
         <v>-13.450852035704131</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
       <c r="AK2" s="1">
         <v>-24.700312989859061</v>
       </c>
@@ -1348,13 +1336,6 @@
       <c r="AC3" s="1">
         <v>94.617074562425429</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
       <c r="AK3" s="1">
         <v>-24.915197943619209</v>
       </c>
@@ -2441,13 +2422,6 @@
       <c r="O6" s="1">
         <v>-4.9465278993547166</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
       <c r="W6" s="1">
         <v>19.066051461265491</v>
       </c>
@@ -2741,27 +2715,6 @@
       </c>
       <c r="DP6" s="1">
         <v>-20.980014434310441</v>
-      </c>
-      <c r="DQ6" s="1">
-        <v>-10.84523357211893</v>
-      </c>
-      <c r="DR6" s="1">
-        <v>-15.916403991420641</v>
-      </c>
-      <c r="DS6" s="1">
-        <v>19.191302625792581</v>
-      </c>
-      <c r="DT6" s="1">
-        <v>-81.745957874802329</v>
-      </c>
-      <c r="DU6" s="1">
-        <v>-3.258102483790482</v>
-      </c>
-      <c r="DV6" s="1">
-        <v>-8.3873508885151473</v>
-      </c>
-      <c r="DW6" s="1">
-        <v>7.133395575472008</v>
       </c>
     </row>
     <row r="7" spans="1:127" x14ac:dyDescent="0.2">
@@ -3193,13 +3146,6 @@
       <c r="O8" s="1">
         <v>13.480854629202019</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
       <c r="W8" s="1">
         <v>9.0581765003724026</v>
       </c>
@@ -3221,13 +3167,6 @@
       <c r="AC8" s="1">
         <v>21.57315993606397</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>4.5100071579421046</v>
       </c>
@@ -3931,13 +3870,6 @@
       <c r="O10" s="1">
         <v>45.499740018399912</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
       <c r="W10" s="1">
         <v>-21.978871806758502</v>
       </c>
@@ -3959,13 +3891,6 @@
       <c r="AC10" s="1">
         <v>13.22655271642355</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <v>25.978478718726599</v>
       </c>
@@ -5010,13 +4935,6 @@
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="1">
         <v>270.53787105366013</v>
       </c>
@@ -5038,13 +4956,6 @@
       <c r="O13" s="1">
         <v>-46.935101266756817</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
       <c r="W13" s="1">
         <v>-26.171958836480879</v>
       </c>
@@ -5087,13 +4998,6 @@
       <c r="AJ13" s="1">
         <v>-16.336371774554699</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
       <c r="AR13" s="1">
         <v>-19.20119293833643</v>
       </c>
@@ -6092,30 +5996,30 @@
         <v>507.96093074938858</v>
       </c>
       <c r="DQ15" s="1">
-        <v>3220.820136532689</v>
+        <v>3295.7820841172788</v>
       </c>
       <c r="DR15" s="1">
-        <v>4912.807330973008</v>
+        <v>5029.6733328161008</v>
       </c>
       <c r="DS15" s="1">
-        <v>4575.1531898772519</v>
+        <v>4433.4224448839614</v>
       </c>
       <c r="DT15" s="1">
-        <v>-1776.9883131363861</v>
+        <v>-1457.756570003947</v>
       </c>
       <c r="DU15" s="1">
-        <v>-2972.7864559628151</v>
+        <v>-2948.2025437006669</v>
       </c>
       <c r="DV15" s="1">
-        <v>-1893.9935293292649</v>
+        <v>-1840.4704859698161</v>
       </c>
       <c r="DW15" s="1">
-        <v>-1375.757675499186</v>
+        <v>-1423.898714682962</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD14">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
